--- a/MachineBookExtract/output/Peter CHAPTERS.xlsx
+++ b/MachineBookExtract/output/Peter CHAPTERS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,65 +540,65 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5906</v>
+        <v>2777</v>
       </c>
       <c r="C2" t="n">
-        <v>36340</v>
+        <v>16026</v>
       </c>
       <c r="D2" t="n">
-        <v>13.69058295964126</v>
+        <v>17.13953488372093</v>
       </c>
       <c r="E2" t="n">
-        <v>73.63793103448276</v>
+        <v>92.18023255813954</v>
       </c>
       <c r="F2" t="n">
-        <v>446</v>
+        <v>172</v>
       </c>
       <c r="G2" t="n">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="H2" t="n">
-        <v>18.83211678832117</v>
+        <v>10.46153846153846</v>
       </c>
       <c r="I2" t="n">
-        <v>93.10218978102189</v>
+        <v>48.34615384615385</v>
       </c>
       <c r="J2" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="L2" t="n">
-        <v>13.86861313868613</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="M2" t="n">
-        <v>86.13138686131387</v>
+        <v>84.61538461538461</v>
       </c>
       <c r="N2" t="n">
-        <v>384</v>
+        <v>131</v>
       </c>
       <c r="O2" t="n">
-        <v>6.50186251269895</v>
+        <v>4.717320849837955</v>
       </c>
       <c r="P2" t="n">
-        <v>444</v>
+        <v>239</v>
       </c>
       <c r="Q2" t="n">
-        <v>324</v>
+        <v>139</v>
       </c>
       <c r="R2" t="n">
-        <v>768</v>
+        <v>378</v>
       </c>
       <c r="S2" t="n">
-        <v>42.1875</v>
+        <v>36.77248677248677</v>
       </c>
       <c r="T2" t="n">
-        <v>57.8125</v>
+        <v>63.22751322751323</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[('Marley', 0.47409414155096513), ('Scrooge', 2.150355570606163), ('Dunstan', 0.016931933626820182), ('Weather', 0.016931933626820182), ('Star', 0.016931933626820182), ('Page', 0.2709109380291229)]</t>
+          <t>[('Pan', 0.14404033129276198), ('Darling', 1.1163125675189054), ('Wendy', 1.0082823190493337), ('Michael', 0.3601008282319049), ('John', 0.39611091105509544), ('Peter', 0.32409074540871446)]</t>
         </is>
       </c>
     </row>
@@ -607,65 +607,65 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5697</v>
+        <v>2676</v>
       </c>
       <c r="C3" t="n">
-        <v>34239</v>
+        <v>15528</v>
       </c>
       <c r="D3" t="n">
-        <v>13.82660332541568</v>
+        <v>11.7</v>
       </c>
       <c r="E3" t="n">
-        <v>72.17954545454545</v>
+        <v>61.116</v>
       </c>
       <c r="F3" t="n">
-        <v>421</v>
+        <v>250</v>
       </c>
       <c r="G3" t="n">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="H3" t="n">
-        <v>16.71666666666667</v>
+        <v>7.889908256880734</v>
       </c>
       <c r="I3" t="n">
-        <v>80.15833333333333</v>
+        <v>33.43119266055046</v>
       </c>
       <c r="J3" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="K3" t="n">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="L3" t="n">
-        <v>22.5</v>
+        <v>37.61467889908257</v>
       </c>
       <c r="M3" t="n">
-        <v>77.5</v>
+        <v>62.38532110091743</v>
       </c>
       <c r="N3" t="n">
-        <v>387</v>
+        <v>129</v>
       </c>
       <c r="O3" t="n">
-        <v>6.79304897314376</v>
+        <v>4.820627802690583</v>
       </c>
       <c r="P3" t="n">
-        <v>455</v>
+        <v>256</v>
       </c>
       <c r="Q3" t="n">
-        <v>268</v>
+        <v>144</v>
       </c>
       <c r="R3" t="n">
-        <v>723</v>
+        <v>400</v>
       </c>
       <c r="S3" t="n">
-        <v>37.06777316735823</v>
+        <v>36</v>
       </c>
       <c r="T3" t="n">
-        <v>62.93222683264177</v>
+        <v>64</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[('Fezziwig', 0.35106196243637), ('Scrooge', 1.2111637704054765), ('Page', 0.29840266807091453), ('Ebenezer', 0.070212392487274), ('Groom', 0.0175530981218185), ('Welch', 0.0175530981218185), ('Dick', 0.1228716868527295)]</t>
+          <t>[('Darling', 1.6442451420029895), ('Wendy', 0.5979073243647235), ('Michael', 0.9342301943198804), ('George', 0.37369207772795215), ('John', 0.336322869955157), ('Liza', 0.07473841554559044), ('Peter', 0.14947683109118087)]</t>
         </is>
       </c>
     </row>
@@ -674,65 +674,65 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7593</v>
+        <v>3703</v>
       </c>
       <c r="C4" t="n">
-        <v>46364</v>
+        <v>21755</v>
       </c>
       <c r="D4" t="n">
-        <v>17.25503355704698</v>
+        <v>11.36974789915966</v>
       </c>
       <c r="E4" t="n">
-        <v>93.50749464668094</v>
+        <v>59.94117647058823</v>
       </c>
       <c r="F4" t="n">
-        <v>447</v>
+        <v>357</v>
       </c>
       <c r="G4" t="n">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="H4" t="n">
-        <v>14.65454545454545</v>
+        <v>6.069148936170213</v>
       </c>
       <c r="I4" t="n">
-        <v>69.75454545454545</v>
+        <v>25.73936170212766</v>
       </c>
       <c r="J4" t="n">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="K4" t="n">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="L4" t="n">
-        <v>20</v>
+        <v>34.57446808510638</v>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>65.42553191489361</v>
       </c>
       <c r="N4" t="n">
-        <v>560</v>
+        <v>185</v>
       </c>
       <c r="O4" t="n">
-        <v>7.375214012906625</v>
+        <v>4.995949230353768</v>
       </c>
       <c r="P4" t="n">
-        <v>598</v>
+        <v>359</v>
       </c>
       <c r="Q4" t="n">
-        <v>346</v>
+        <v>246</v>
       </c>
       <c r="R4" t="n">
-        <v>944</v>
+        <v>605</v>
       </c>
       <c r="S4" t="n">
-        <v>36.65254237288136</v>
+        <v>40.66115702479339</v>
       </c>
       <c r="T4" t="n">
-        <v>63.34745762711864</v>
+        <v>59.33884297520661</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[('Scrooge', 1.1984722770973264), ('Page', 0.2370604504148558)]</t>
+          <t>[('Pan', 0.08101539292465569), ('Darling', 0.1890359168241966), ('Wendy', 1.3502565487442615), ('Michael', 0.24304617877396706), ('John', 0.43208209559816363), ('Liza', 0.13502565487442614), ('Peter', 1.5122873345935728), ('Angela', 0.054010261949770454), ('Bell', 0.1890359168241966)]</t>
         </is>
       </c>
     </row>
@@ -741,65 +741,65 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4912</v>
+        <v>2589</v>
       </c>
       <c r="C5" t="n">
-        <v>28919</v>
+        <v>15081</v>
       </c>
       <c r="D5" t="n">
-        <v>11.96091954022988</v>
+        <v>13.15023474178404</v>
       </c>
       <c r="E5" t="n">
-        <v>61.40492170022372</v>
+        <v>69.8075117370892</v>
       </c>
       <c r="F5" t="n">
-        <v>435</v>
+        <v>213</v>
       </c>
       <c r="G5" t="n">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="H5" t="n">
-        <v>21.77611940298507</v>
+        <v>5.56701030927835</v>
       </c>
       <c r="I5" t="n">
-        <v>103.9701492537313</v>
+        <v>24.36082474226804</v>
       </c>
       <c r="J5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K5" t="n">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="L5" t="n">
-        <v>21.64179104477612</v>
+        <v>35.05154639175258</v>
       </c>
       <c r="M5" t="n">
-        <v>78.35820895522389</v>
+        <v>64.94845360824742</v>
       </c>
       <c r="N5" t="n">
-        <v>310</v>
+        <v>155</v>
       </c>
       <c r="O5" t="n">
-        <v>6.311074918566775</v>
+        <v>5.986867516415605</v>
       </c>
       <c r="P5" t="n">
-        <v>416</v>
+        <v>236</v>
       </c>
       <c r="Q5" t="n">
-        <v>293</v>
+        <v>170</v>
       </c>
       <c r="R5" t="n">
-        <v>709</v>
+        <v>406</v>
       </c>
       <c r="S5" t="n">
-        <v>41.32581100141044</v>
+        <v>41.87192118226601</v>
       </c>
       <c r="T5" t="n">
-        <v>58.67418899858956</v>
+        <v>58.12807881773399</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[('Scrooge', 0.7125407166123778), ('Page', 0.24429967426710097)]</t>
+          <t>[('Wendy', 1.1201235998455001), ('Michael', 0.6179992275009656), ('John', 1.313248358439552), ('Peter', 1.197373503283121), ('Barbecue', 0.03862495171881035), ('Tom', 0.0772499034376207), ('Bell', 0.11587485515643106), ('Hook', 0.1544998068752414)]</t>
         </is>
       </c>
     </row>
@@ -808,65 +808,869 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2206</v>
+        <v>3243</v>
       </c>
       <c r="C6" t="n">
-        <v>13120</v>
+        <v>18997</v>
       </c>
       <c r="D6" t="n">
-        <v>9.487903225806452</v>
+        <v>16.07906976744186</v>
       </c>
       <c r="E6" t="n">
-        <v>47.03112840466926</v>
+        <v>87.36279069767441</v>
       </c>
       <c r="F6" t="n">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G6" t="n">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H6" t="n">
-        <v>19.04545454545455</v>
+        <v>9.315068493150685</v>
       </c>
       <c r="I6" t="n">
-        <v>89.25757575757575</v>
+        <v>40.08219178082192</v>
       </c>
       <c r="J6" t="n">
+        <v>22</v>
+      </c>
+      <c r="K6" t="n">
+        <v>51</v>
+      </c>
+      <c r="L6" t="n">
+        <v>30.13698630136986</v>
+      </c>
+      <c r="M6" t="n">
+        <v>69.86301369863014</v>
+      </c>
+      <c r="N6" t="n">
+        <v>209</v>
+      </c>
+      <c r="O6" t="n">
+        <v>6.444650015417823</v>
+      </c>
+      <c r="P6" t="n">
+        <v>239</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>187</v>
+      </c>
+      <c r="R6" t="n">
+        <v>426</v>
+      </c>
+      <c r="S6" t="n">
+        <v>43.89671361502347</v>
+      </c>
+      <c r="T6" t="n">
+        <v>56.10328638497653</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>[('Pan', 0.1541782300339192), ('Wendy', 0.18501387604070305), ('Peter', 0.7400555041628122), ('Tootles', 0.2158495220474869), ('Jukes', 0.061671292013567684), ('Smee', 0.5242059821153253), ('Mullins', 0.030835646006783842), ('Hook', 0.5550416281221091)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2219</v>
+      </c>
+      <c r="C7" t="n">
+        <v>13263</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.77092511013216</v>
+      </c>
+      <c r="E7" t="n">
+        <v>57.43171806167401</v>
+      </c>
+      <c r="F7" t="n">
+        <v>227</v>
+      </c>
+      <c r="G7" t="n">
+        <v>142</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5.823943661971831</v>
+      </c>
+      <c r="I7" t="n">
+        <v>24.5774647887324</v>
+      </c>
+      <c r="J7" t="n">
+        <v>56</v>
+      </c>
+      <c r="K7" t="n">
+        <v>86</v>
+      </c>
+      <c r="L7" t="n">
+        <v>39.43661971830986</v>
+      </c>
+      <c r="M7" t="n">
+        <v>60.56338028169014</v>
+      </c>
+      <c r="N7" t="n">
+        <v>116</v>
+      </c>
+      <c r="O7" t="n">
+        <v>5.227579990986931</v>
+      </c>
+      <c r="P7" t="n">
+        <v>232</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>111</v>
+      </c>
+      <c r="R7" t="n">
+        <v>343</v>
+      </c>
+      <c r="S7" t="n">
+        <v>32.36151603498542</v>
+      </c>
+      <c r="T7" t="n">
+        <v>67.63848396501457</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>[('Wendy', 1.3970256872465074), ('Michael', 0.18026137899954936), ('John', 0.5858494817485354), ('Peter', 2.0730058584948177), ('Tootles', 0.4957187922487607), ('Bell', 0.18026137899954936)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2204</v>
+      </c>
+      <c r="C8" t="n">
+        <v>12570</v>
+      </c>
+      <c r="D8" t="n">
+        <v>24.94565217391304</v>
+      </c>
+      <c r="E8" t="n">
+        <v>135.6413043478261</v>
+      </c>
+      <c r="F8" t="n">
+        <v>92</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
+        <v>78.71428571428571</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4</v>
+      </c>
+      <c r="L8" t="n">
+        <v>42.85714285714285</v>
+      </c>
+      <c r="M8" t="n">
+        <v>57.14285714285715</v>
+      </c>
+      <c r="N8" t="n">
+        <v>132</v>
+      </c>
+      <c r="O8" t="n">
+        <v>5.989110707803992</v>
+      </c>
+      <c r="P8" t="n">
+        <v>194</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>121</v>
+      </c>
+      <c r="R8" t="n">
+        <v>315</v>
+      </c>
+      <c r="S8" t="n">
+        <v>38.41269841269841</v>
+      </c>
+      <c r="T8" t="n">
+        <v>61.58730158730159</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>[('Wendy', 0.7713248638838476), ('Michael', 0.3176043557168784), ('John', 0.27223230490018147), ('Peter', 0.5898366606170599), ('Tootles', 0.09074410163339383), ('Hook', 0.09074410163339383)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3531</v>
+      </c>
+      <c r="C9" t="n">
+        <v>20331</v>
+      </c>
+      <c r="D9" t="n">
+        <v>12.20634920634921</v>
+      </c>
+      <c r="E9" t="n">
+        <v>63.54603174603174</v>
+      </c>
+      <c r="F9" t="n">
+        <v>315</v>
+      </c>
+      <c r="G9" t="n">
+        <v>120</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5.233333333333333</v>
+      </c>
+      <c r="I9" t="n">
+        <v>22.80833333333333</v>
+      </c>
+      <c r="J9" t="n">
+        <v>43</v>
+      </c>
+      <c r="K9" t="n">
+        <v>77</v>
+      </c>
+      <c r="L9" t="n">
+        <v>35.83333333333334</v>
+      </c>
+      <c r="M9" t="n">
+        <v>64.16666666666667</v>
+      </c>
+      <c r="N9" t="n">
+        <v>179</v>
+      </c>
+      <c r="O9" t="n">
+        <v>5.069385443217219</v>
+      </c>
+      <c r="P9" t="n">
+        <v>348</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>211</v>
+      </c>
+      <c r="R9" t="n">
+        <v>559</v>
+      </c>
+      <c r="S9" t="n">
+        <v>37.74597495527728</v>
+      </c>
+      <c r="T9" t="n">
+        <v>62.25402504472272</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>[('Wendy', 0.7929764939110734), ('Michael', 0.11328235627301048), ('John', 0.11328235627301048), ('Peter', 0.9629000283205891), ('First', 0.02832058906825262), ('Tootles', 0.02832058906825262), ('Smee', 0.5664117813650524), ('Hook', 0.8779382611158312)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>960</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5619</v>
+      </c>
+      <c r="D10" t="n">
+        <v>19.80392156862745</v>
+      </c>
+      <c r="E10" t="n">
+        <v>109.1960784313726</v>
+      </c>
+      <c r="F10" t="n">
+        <v>51</v>
+      </c>
+      <c r="G10" t="n">
+        <v>11</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.818181818181818</v>
+      </c>
+      <c r="I10" t="n">
+        <v>33.90909090909091</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>6</v>
+      </c>
+      <c r="L10" t="n">
+        <v>45.45454545454545</v>
+      </c>
+      <c r="M10" t="n">
+        <v>54.54545454545455</v>
+      </c>
+      <c r="N10" t="n">
+        <v>55</v>
+      </c>
+      <c r="O10" t="n">
+        <v>5.729166666666667</v>
+      </c>
+      <c r="P10" t="n">
+        <v>103</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>46</v>
+      </c>
+      <c r="R10" t="n">
+        <v>149</v>
+      </c>
+      <c r="S10" t="n">
+        <v>30.87248322147651</v>
+      </c>
+      <c r="T10" t="n">
+        <v>69.12751677852349</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>[('Darling', 0.10416666666666667), ('Peter', 1.3541666666666667)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1749</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10413</v>
+      </c>
+      <c r="D11" t="n">
+        <v>12.42483660130719</v>
+      </c>
+      <c r="E11" t="n">
+        <v>67.06535947712419</v>
+      </c>
+      <c r="F11" t="n">
+        <v>153</v>
+      </c>
+      <c r="G11" t="n">
+        <v>99</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5.515151515151516</v>
+      </c>
+      <c r="I11" t="n">
+        <v>23.37373737373737</v>
+      </c>
+      <c r="J11" t="n">
+        <v>42</v>
+      </c>
+      <c r="K11" t="n">
+        <v>57</v>
+      </c>
+      <c r="L11" t="n">
+        <v>42.42424242424242</v>
+      </c>
+      <c r="M11" t="n">
+        <v>57.57575757575758</v>
+      </c>
+      <c r="N11" t="n">
+        <v>99</v>
+      </c>
+      <c r="O11" t="n">
+        <v>5.660377358490566</v>
+      </c>
+      <c r="P11" t="n">
+        <v>162</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>98</v>
+      </c>
+      <c r="R11" t="n">
+        <v>260</v>
+      </c>
+      <c r="S11" t="n">
+        <v>37.69230769230769</v>
+      </c>
+      <c r="T11" t="n">
+        <v>62.30769230769231</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>[('Pan', 0.17152658662092624), ('Wendy', 1.5437392795883362), ('Michael', 0.34305317324185247), ('John', 0.2858776443682104), ('Peter', 1.486563750714694), ('Tootles', 0.40022870211549455), ('Bell', 0.17152658662092624), ('Lily', 0.17152658662092624)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2067</v>
+      </c>
+      <c r="C12" t="n">
+        <v>12464</v>
+      </c>
+      <c r="D12" t="n">
+        <v>11.27860696517413</v>
+      </c>
+      <c r="E12" t="n">
+        <v>61.01492537313433</v>
+      </c>
+      <c r="F12" t="n">
+        <v>201</v>
+      </c>
+      <c r="G12" t="n">
+        <v>125</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5.864</v>
+      </c>
+      <c r="I12" t="n">
+        <v>25.688</v>
+      </c>
+      <c r="J12" t="n">
+        <v>48</v>
+      </c>
+      <c r="K12" t="n">
+        <v>77</v>
+      </c>
+      <c r="L12" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="M12" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="N12" t="n">
+        <v>120</v>
+      </c>
+      <c r="O12" t="n">
+        <v>5.805515239477503</v>
+      </c>
+      <c r="P12" t="n">
+        <v>194</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>113</v>
+      </c>
+      <c r="R12" t="n">
+        <v>307</v>
+      </c>
+      <c r="S12" t="n">
+        <v>36.80781758957654</v>
+      </c>
+      <c r="T12" t="n">
+        <v>63.19218241042346</v>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>[('Darling', 0.14513788098693758), ('Wendy', 1.4513788098693758), ('Michael', 0.24189646831156264), ('John', 0.3386550556361877), ('Peter', 1.4513788098693758), ('Barbecue', 0.04837929366231253), ('Tootles', 0.4837929366231253), ('Bell', 0.09675858732462506)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1500</v>
+      </c>
+      <c r="C13" t="n">
+        <v>8856</v>
+      </c>
+      <c r="D13" t="n">
+        <v>21.81944444444444</v>
+      </c>
+      <c r="E13" t="n">
+        <v>122.0138888888889</v>
+      </c>
+      <c r="F13" t="n">
+        <v>72</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5</v>
+      </c>
+      <c r="H13" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I13" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3</v>
+      </c>
+      <c r="L13" t="n">
+        <v>40</v>
+      </c>
+      <c r="M13" t="n">
+        <v>60</v>
+      </c>
+      <c r="N13" t="n">
+        <v>92</v>
+      </c>
+      <c r="O13" t="n">
+        <v>6.133333333333334</v>
+      </c>
+      <c r="P13" t="n">
+        <v>109</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>78</v>
+      </c>
+      <c r="R13" t="n">
+        <v>187</v>
+      </c>
+      <c r="S13" t="n">
+        <v>41.71122994652406</v>
+      </c>
+      <c r="T13" t="n">
+        <v>58.28877005347594</v>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>[('Pan', 0.26666666666666666), ('Wendy', 0.06666666666666667), ('Peter', 0.5333333333333333), ('Smee', 0.2), ('Hook', 0.7333333333333333), ('Lily', 0.13333333333333333)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2605</v>
+      </c>
+      <c r="C14" t="n">
+        <v>15056</v>
+      </c>
+      <c r="D14" t="n">
+        <v>16.31764705882353</v>
+      </c>
+      <c r="E14" t="n">
+        <v>87.57058823529412</v>
+      </c>
+      <c r="F14" t="n">
+        <v>170</v>
+      </c>
+      <c r="G14" t="n">
+        <v>28</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4.214285714285714</v>
+      </c>
+      <c r="I14" t="n">
+        <v>18.64285714285714</v>
+      </c>
+      <c r="J14" t="n">
+        <v>11</v>
+      </c>
+      <c r="K14" t="n">
         <v>17</v>
       </c>
-      <c r="K6" t="n">
-        <v>49</v>
-      </c>
-      <c r="L6" t="n">
-        <v>25.75757575757576</v>
-      </c>
-      <c r="M6" t="n">
-        <v>74.24242424242425</v>
-      </c>
-      <c r="N6" t="n">
-        <v>112</v>
-      </c>
-      <c r="O6" t="n">
-        <v>5.077062556663645</v>
-      </c>
-      <c r="P6" t="n">
-        <v>158</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>134</v>
-      </c>
-      <c r="R6" t="n">
-        <v>292</v>
-      </c>
-      <c r="S6" t="n">
-        <v>45.89041095890411</v>
-      </c>
-      <c r="T6" t="n">
-        <v>54.10958904109589</v>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>[('', 100.0), ('Marley', 0.1359927470534905), ('Scrooge', 1.85856754306437), ('Page', 0.3173164097914778)]</t>
+      <c r="L14" t="n">
+        <v>39.28571428571428</v>
+      </c>
+      <c r="M14" t="n">
+        <v>60.71428571428572</v>
+      </c>
+      <c r="N14" t="n">
+        <v>156</v>
+      </c>
+      <c r="O14" t="n">
+        <v>5.988483685220729</v>
+      </c>
+      <c r="P14" t="n">
+        <v>266</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>149</v>
+      </c>
+      <c r="R14" t="n">
+        <v>415</v>
+      </c>
+      <c r="S14" t="n">
+        <v>35.90361445783132</v>
+      </c>
+      <c r="T14" t="n">
+        <v>64.09638554216868</v>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>[('Wendy', 0.2687140115163148), ('Peter', 0.8061420345489443), ('First', 0.03838771593090211), ('Bell', 0.11516314779270634), ('Hook', 0.7293666026871402), ('Lily', 0.03838771593090211)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2085</v>
+      </c>
+      <c r="C15" t="n">
+        <v>12188</v>
+      </c>
+      <c r="D15" t="n">
+        <v>13.63030303030303</v>
+      </c>
+      <c r="E15" t="n">
+        <v>72.87272727272727</v>
+      </c>
+      <c r="F15" t="n">
+        <v>165</v>
+      </c>
+      <c r="G15" t="n">
+        <v>58</v>
+      </c>
+      <c r="H15" t="n">
+        <v>7.017241379310345</v>
+      </c>
+      <c r="I15" t="n">
+        <v>30.24137931034483</v>
+      </c>
+      <c r="J15" t="n">
+        <v>23</v>
+      </c>
+      <c r="K15" t="n">
+        <v>35</v>
+      </c>
+      <c r="L15" t="n">
+        <v>39.6551724137931</v>
+      </c>
+      <c r="M15" t="n">
+        <v>60.3448275862069</v>
+      </c>
+      <c r="N15" t="n">
+        <v>125</v>
+      </c>
+      <c r="O15" t="n">
+        <v>5.995203836930456</v>
+      </c>
+      <c r="P15" t="n">
+        <v>209</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>143</v>
+      </c>
+      <c r="R15" t="n">
+        <v>352</v>
+      </c>
+      <c r="S15" t="n">
+        <v>40.625</v>
+      </c>
+      <c r="T15" t="n">
+        <v>59.375</v>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>[('Wendy', 0.38369304556354916), ('Michael', 0.23980815347721823), ('John', 0.4316546762589928), ('Peter', 0.14388489208633093), ('Barbecue', 0.14388489208633093), ('Tootles', 0.19184652278177458), ('Jukes', 0.047961630695443645), ('Smee', 0.5755395683453237), ('Hook', 1.0071942446043165)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2858</v>
+      </c>
+      <c r="C16" t="n">
+        <v>16907</v>
+      </c>
+      <c r="D16" t="n">
+        <v>14.47641509433962</v>
+      </c>
+      <c r="E16" t="n">
+        <v>78.75471698113208</v>
+      </c>
+      <c r="F16" t="n">
+        <v>212</v>
+      </c>
+      <c r="G16" t="n">
+        <v>90</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5.588888888888889</v>
+      </c>
+      <c r="I16" t="n">
+        <v>24.97777777777778</v>
+      </c>
+      <c r="J16" t="n">
+        <v>35</v>
+      </c>
+      <c r="K16" t="n">
+        <v>55</v>
+      </c>
+      <c r="L16" t="n">
+        <v>38.88888888888889</v>
+      </c>
+      <c r="M16" t="n">
+        <v>61.11111111111111</v>
+      </c>
+      <c r="N16" t="n">
+        <v>138</v>
+      </c>
+      <c r="O16" t="n">
+        <v>4.828551434569629</v>
+      </c>
+      <c r="P16" t="n">
+        <v>308</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>151</v>
+      </c>
+      <c r="R16" t="n">
+        <v>459</v>
+      </c>
+      <c r="S16" t="n">
+        <v>32.89760348583878</v>
+      </c>
+      <c r="T16" t="n">
+        <v>67.10239651416121</v>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>[('Pan', 0.10496850944716585), ('Wendy', 0.17494751574527642), ('Michael', 0.03498950314905528), ('John', 0.06997900629811056), ('Peter', 1.0846745976207137), ('First', 0.03498950314905528), ('Barbecue', 0.03498950314905528), ('Tom', 0.06997900629811056), ('Jukes', 0.17494751574527642), ('Cookson', 0.06997900629811056), ('Smee', 0.06997900629811056), ('Mullins', 0.13995801259622112), ('Hook', 1.504548635409377)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2698</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15330</v>
+      </c>
+      <c r="D17" t="n">
+        <v>14.76020408163265</v>
+      </c>
+      <c r="E17" t="n">
+        <v>77.21938775510205</v>
+      </c>
+      <c r="F17" t="n">
+        <v>196</v>
+      </c>
+      <c r="G17" t="n">
+        <v>69</v>
+      </c>
+      <c r="H17" t="n">
+        <v>6.550724637681159</v>
+      </c>
+      <c r="I17" t="n">
+        <v>26.8695652173913</v>
+      </c>
+      <c r="J17" t="n">
+        <v>26</v>
+      </c>
+      <c r="K17" t="n">
+        <v>43</v>
+      </c>
+      <c r="L17" t="n">
+        <v>37.68115942028985</v>
+      </c>
+      <c r="M17" t="n">
+        <v>62.31884057971015</v>
+      </c>
+      <c r="N17" t="n">
+        <v>146</v>
+      </c>
+      <c r="O17" t="n">
+        <v>5.411415863602668</v>
+      </c>
+      <c r="P17" t="n">
+        <v>223</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>171</v>
+      </c>
+      <c r="R17" t="n">
+        <v>394</v>
+      </c>
+      <c r="S17" t="n">
+        <v>43.4010152284264</v>
+      </c>
+      <c r="T17" t="n">
+        <v>56.5989847715736</v>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>[('Pan', 0.037064492216456635), ('Darling', 0.704225352112676), ('Wendy', 0.9266123054114158), ('Michael', 0.37064492216456635), ('John', 0.5559673832468495), ('Peter', 0.25945144551519644)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3164</v>
+      </c>
+      <c r="C18" t="n">
+        <v>17776</v>
+      </c>
+      <c r="D18" t="n">
+        <v>12.21631205673759</v>
+      </c>
+      <c r="E18" t="n">
+        <v>62.03900709219858</v>
+      </c>
+      <c r="F18" t="n">
+        <v>282</v>
+      </c>
+      <c r="G18" t="n">
+        <v>149</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5.416107382550336</v>
+      </c>
+      <c r="I18" t="n">
+        <v>22.2013422818792</v>
+      </c>
+      <c r="J18" t="n">
+        <v>52</v>
+      </c>
+      <c r="K18" t="n">
+        <v>97</v>
+      </c>
+      <c r="L18" t="n">
+        <v>34.8993288590604</v>
+      </c>
+      <c r="M18" t="n">
+        <v>65.1006711409396</v>
+      </c>
+      <c r="N18" t="n">
+        <v>187</v>
+      </c>
+      <c r="O18" t="n">
+        <v>5.910240202275601</v>
+      </c>
+      <c r="P18" t="n">
+        <v>299</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>206</v>
+      </c>
+      <c r="R18" t="n">
+        <v>505</v>
+      </c>
+      <c r="S18" t="n">
+        <v>40.79207920792079</v>
+      </c>
+      <c r="T18" t="n">
+        <v>59.20792079207921</v>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>[('Darling', 0.37926675094816686), ('Wendy', 1.4538558786346396), ('Michael', 0.22123893805309736), ('Peter', 1.359039190897598), ('Tootles', 0.0632111251580278), ('Bell', 0.0632111251580278)]</t>
         </is>
       </c>
     </row>

--- a/MachineBookExtract/output/Peter CHAPTERS.xlsx
+++ b/MachineBookExtract/output/Peter CHAPTERS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,65 +540,65 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2777</v>
+        <v>5266</v>
       </c>
       <c r="C2" t="n">
-        <v>16026</v>
+        <v>30227</v>
       </c>
       <c r="D2" t="n">
-        <v>17.13953488372093</v>
+        <v>23.28813559322034</v>
       </c>
       <c r="E2" t="n">
-        <v>92.18023255813954</v>
+        <v>126.3206751054852</v>
       </c>
       <c r="F2" t="n">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="G2" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H2" t="n">
-        <v>10.46153846153846</v>
+        <v>68.12903225806451</v>
       </c>
       <c r="I2" t="n">
-        <v>48.34615384615385</v>
+        <v>317.741935483871</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="n">
-        <v>15.38461538461539</v>
+        <v>25.80645161290322</v>
       </c>
       <c r="M2" t="n">
-        <v>84.61538461538461</v>
+        <v>74.19354838709677</v>
       </c>
       <c r="N2" t="n">
-        <v>131</v>
+        <v>424</v>
       </c>
       <c r="O2" t="n">
-        <v>4.717320849837955</v>
+        <v>8.051652107861754</v>
       </c>
       <c r="P2" t="n">
-        <v>239</v>
+        <v>447</v>
       </c>
       <c r="Q2" t="n">
-        <v>139</v>
+        <v>301</v>
       </c>
       <c r="R2" t="n">
-        <v>378</v>
+        <v>748</v>
       </c>
       <c r="S2" t="n">
-        <v>36.77248677248677</v>
+        <v>40.24064171122995</v>
       </c>
       <c r="T2" t="n">
-        <v>63.22751322751323</v>
+        <v>59.75935828877005</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[('Pan', 0.14404033129276198), ('Darling', 1.1163125675189054), ('Wendy', 1.0082823190493337), ('Michael', 0.3601008282319049), ('John', 0.39611091105509544), ('Peter', 0.32409074540871446)]</t>
+          <t>[('Dracula', 0.0759589821496392), ('Mina', 0.0569692366122294), ('Szekelys', 0.0189897455374098), ('Herr', 0.1139384732244588)]</t>
         </is>
       </c>
     </row>
@@ -607,65 +607,65 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2676</v>
+        <v>5099</v>
       </c>
       <c r="C3" t="n">
-        <v>15528</v>
+        <v>28143</v>
       </c>
       <c r="D3" t="n">
-        <v>11.7</v>
+        <v>19.74264705882353</v>
       </c>
       <c r="E3" t="n">
-        <v>61.116</v>
+        <v>102.4705882352941</v>
       </c>
       <c r="F3" t="n">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="G3" t="n">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="H3" t="n">
-        <v>7.889908256880734</v>
+        <v>38.90476190476191</v>
       </c>
       <c r="I3" t="n">
-        <v>33.43119266055046</v>
+        <v>172.7857142857143</v>
       </c>
       <c r="J3" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="K3" t="n">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="L3" t="n">
-        <v>37.61467889908257</v>
+        <v>26.19047619047619</v>
       </c>
       <c r="M3" t="n">
-        <v>62.38532110091743</v>
+        <v>73.80952380952381</v>
       </c>
       <c r="N3" t="n">
-        <v>129</v>
+        <v>366</v>
       </c>
       <c r="O3" t="n">
-        <v>4.820627802690583</v>
+        <v>7.177878015297117</v>
       </c>
       <c r="P3" t="n">
-        <v>256</v>
+        <v>420</v>
       </c>
       <c r="Q3" t="n">
-        <v>144</v>
+        <v>362</v>
       </c>
       <c r="R3" t="n">
-        <v>400</v>
+        <v>782</v>
       </c>
       <c r="S3" t="n">
-        <v>36</v>
+        <v>46.29156010230179</v>
       </c>
       <c r="T3" t="n">
-        <v>64</v>
+        <v>53.70843989769821</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[('Darling', 1.6442451420029895), ('Wendy', 0.5979073243647235), ('Michael', 0.9342301943198804), ('George', 0.37369207772795215), ('John', 0.336322869955157), ('Liza', 0.07473841554559044), ('Peter', 0.14947683109118087)]</t>
+          <t>[('Harker', 0.0588350656991567), ('Mina', 0.019611688566385566), ('Hawkins', 0.07844675426554226), ('Whitby', 0.019611688566385566)]</t>
         </is>
       </c>
     </row>
@@ -674,65 +674,65 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3703</v>
+        <v>5400</v>
       </c>
       <c r="C4" t="n">
-        <v>21755</v>
+        <v>29529</v>
       </c>
       <c r="D4" t="n">
-        <v>11.36974789915966</v>
+        <v>21.52851711026616</v>
       </c>
       <c r="E4" t="n">
-        <v>59.94117647058823</v>
+        <v>111.2813688212928</v>
       </c>
       <c r="F4" t="n">
-        <v>357</v>
+        <v>263</v>
       </c>
       <c r="G4" t="n">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="H4" t="n">
-        <v>6.069148936170213</v>
+        <v>45.59090909090909</v>
       </c>
       <c r="I4" t="n">
-        <v>25.73936170212766</v>
+        <v>196.8636363636364</v>
       </c>
       <c r="J4" t="n">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="K4" t="n">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="L4" t="n">
-        <v>34.57446808510638</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="M4" t="n">
-        <v>65.42553191489361</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="N4" t="n">
-        <v>185</v>
+        <v>385</v>
       </c>
       <c r="O4" t="n">
-        <v>4.995949230353768</v>
+        <v>7.12962962962963</v>
       </c>
       <c r="P4" t="n">
-        <v>359</v>
+        <v>414</v>
       </c>
       <c r="Q4" t="n">
-        <v>246</v>
+        <v>356</v>
       </c>
       <c r="R4" t="n">
-        <v>605</v>
+        <v>770</v>
       </c>
       <c r="S4" t="n">
-        <v>40.66115702479339</v>
+        <v>46.23376623376623</v>
       </c>
       <c r="T4" t="n">
-        <v>59.33884297520661</v>
+        <v>53.76623376623377</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[('Pan', 0.08101539292465569), ('Darling', 0.1890359168241966), ('Wendy', 1.3502565487442615), ('Michael', 0.24304617877396706), ('John', 0.43208209559816363), ('Liza', 0.13502565487442614), ('Peter', 1.5122873345935728), ('Angela', 0.054010261949770454), ('Bell', 0.1890359168241966)]</t>
+          <t>[('Dracula', 0.1111111111111111), ('Szekelys', 0.05555555555555555), ('Herr', 0.037037037037037035), ('Bistritz', 0.018518518518518517), ('Hawkins', 0.07407407407407407), ('Wodin', 0.018518518518518517), ('Honfoglalas', 0.018518518518518517), ('Voivode', 0.018518518518518517), ('Woe', 0.018518518518518517)]</t>
         </is>
       </c>
     </row>
@@ -741,65 +741,65 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2589</v>
+        <v>5726</v>
       </c>
       <c r="C5" t="n">
-        <v>15081</v>
+        <v>30188</v>
       </c>
       <c r="D5" t="n">
-        <v>13.15023474178404</v>
+        <v>17.78885630498534</v>
       </c>
       <c r="E5" t="n">
-        <v>69.8075117370892</v>
+        <v>87.53079178885631</v>
       </c>
       <c r="F5" t="n">
-        <v>213</v>
+        <v>341</v>
       </c>
       <c r="G5" t="n">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="H5" t="n">
-        <v>5.56701030927835</v>
+        <v>21.625</v>
       </c>
       <c r="I5" t="n">
-        <v>24.36082474226804</v>
+        <v>101.0625</v>
       </c>
       <c r="J5" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="K5" t="n">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="L5" t="n">
-        <v>35.05154639175258</v>
+        <v>37.5</v>
       </c>
       <c r="M5" t="n">
-        <v>64.94845360824742</v>
+        <v>62.5</v>
       </c>
       <c r="N5" t="n">
-        <v>155</v>
+        <v>356</v>
       </c>
       <c r="O5" t="n">
-        <v>5.986867516415605</v>
+        <v>6.217254628012574</v>
       </c>
       <c r="P5" t="n">
-        <v>236</v>
+        <v>462</v>
       </c>
       <c r="Q5" t="n">
-        <v>170</v>
+        <v>396</v>
       </c>
       <c r="R5" t="n">
-        <v>406</v>
+        <v>858</v>
       </c>
       <c r="S5" t="n">
-        <v>41.87192118226601</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="T5" t="n">
-        <v>58.12807881773399</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[('Wendy', 1.1201235998455001), ('Michael', 0.6179992275009656), ('John', 1.313248358439552), ('Peter', 1.197373503283121), ('Barbecue', 0.03862495171881035), ('Tom', 0.0772499034376207), ('Bell', 0.11587485515643106), ('Hook', 0.1544998068752414)]</t>
+          <t>[('Dracula', 0.0349283967865875), ('Mina', 0.08732099196646874), ('Bistritz', 0.05239259517988124)]</t>
         </is>
       </c>
     </row>
@@ -808,65 +808,65 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3243</v>
+        <v>3261</v>
       </c>
       <c r="C6" t="n">
-        <v>18997</v>
+        <v>17805</v>
       </c>
       <c r="D6" t="n">
-        <v>16.07906976744186</v>
+        <v>14.93162393162393</v>
       </c>
       <c r="E6" t="n">
-        <v>87.36279069767441</v>
+        <v>75.09401709401709</v>
       </c>
       <c r="F6" t="n">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="G6" t="n">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="H6" t="n">
-        <v>9.315068493150685</v>
+        <v>121.6470588235294</v>
       </c>
       <c r="I6" t="n">
-        <v>40.08219178082192</v>
+        <v>537.7058823529412</v>
       </c>
       <c r="J6" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="L6" t="n">
-        <v>30.13698630136986</v>
+        <v>29.41176470588235</v>
       </c>
       <c r="M6" t="n">
-        <v>69.86301369863014</v>
+        <v>70.58823529411765</v>
       </c>
       <c r="N6" t="n">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="O6" t="n">
-        <v>6.444650015417823</v>
+        <v>7.145047531432076</v>
       </c>
       <c r="P6" t="n">
-        <v>239</v>
+        <v>144</v>
       </c>
       <c r="Q6" t="n">
-        <v>187</v>
+        <v>294</v>
       </c>
       <c r="R6" t="n">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="S6" t="n">
-        <v>43.89671361502347</v>
+        <v>67.12328767123287</v>
       </c>
       <c r="T6" t="n">
-        <v>56.10328638497653</v>
+        <v>32.87671232876713</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[('Pan', 0.1541782300339192), ('Wendy', 0.18501387604070305), ('Peter', 0.7400555041628122), ('Tootles', 0.2158495220474869), ('Jukes', 0.061671292013567684), ('Smee', 0.5242059821153253), ('Mullins', 0.030835646006783842), ('Hook', 0.5550416281221091)]</t>
+          <t>[('Lucy', 0.18399264029438822), ('Westenra', 0.09199632014719411), ('Mina', 0.5519779208831647), ('Jonathan', 0.21465808034345293)]</t>
         </is>
       </c>
     </row>
@@ -875,65 +875,65 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2219</v>
+        <v>5548</v>
       </c>
       <c r="C7" t="n">
-        <v>13263</v>
+        <v>29157</v>
       </c>
       <c r="D7" t="n">
-        <v>10.77092511013216</v>
+        <v>17.36283185840708</v>
       </c>
       <c r="E7" t="n">
-        <v>57.43171806167401</v>
+        <v>85.0117994100295</v>
       </c>
       <c r="F7" t="n">
-        <v>227</v>
+        <v>339</v>
       </c>
       <c r="G7" t="n">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="H7" t="n">
-        <v>5.823943661971831</v>
+        <v>123.6285714285714</v>
       </c>
       <c r="I7" t="n">
-        <v>24.5774647887324</v>
+        <v>512.5142857142857</v>
       </c>
       <c r="J7" t="n">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="K7" t="n">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="L7" t="n">
-        <v>39.43661971830986</v>
+        <v>22.85714285714286</v>
       </c>
       <c r="M7" t="n">
-        <v>60.56338028169014</v>
+        <v>77.14285714285714</v>
       </c>
       <c r="N7" t="n">
-        <v>116</v>
+        <v>399</v>
       </c>
       <c r="O7" t="n">
-        <v>5.227579990986931</v>
+        <v>7.191780821917808</v>
       </c>
       <c r="P7" t="n">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="Q7" t="n">
-        <v>111</v>
+        <v>426</v>
       </c>
       <c r="R7" t="n">
-        <v>343</v>
+        <v>672</v>
       </c>
       <c r="S7" t="n">
-        <v>32.36151603498542</v>
+        <v>63.39285714285715</v>
       </c>
       <c r="T7" t="n">
-        <v>67.63848396501457</v>
+        <v>36.60714285714285</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[('Wendy', 1.3970256872465074), ('Michael', 0.18026137899954936), ('John', 0.5858494817485354), ('Peter', 2.0730058584948177), ('Tootles', 0.4957187922487607), ('Bell', 0.18026137899954936)]</t>
+          <t>[('Lucy', 0.3604902667627974), ('Westenra', 0.01802451333813987), ('Jonathan', 0.1802451333813987), ('Whitby', 0.09012256669069935)]</t>
         </is>
       </c>
     </row>
@@ -942,65 +942,65 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2204</v>
+        <v>5710</v>
       </c>
       <c r="C8" t="n">
-        <v>12570</v>
+        <v>30205</v>
       </c>
       <c r="D8" t="n">
-        <v>24.94565217391304</v>
+        <v>18.67492260061919</v>
       </c>
       <c r="E8" t="n">
-        <v>135.6413043478261</v>
+        <v>92.51702786377709</v>
       </c>
       <c r="F8" t="n">
-        <v>92</v>
+        <v>323</v>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="H8" t="n">
-        <v>15</v>
+        <v>131.1666666666667</v>
       </c>
       <c r="I8" t="n">
-        <v>78.71428571428571</v>
+        <v>472.7222222222222</v>
       </c>
       <c r="J8" t="n">
         <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="L8" t="n">
-        <v>42.85714285714285</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="M8" t="n">
-        <v>57.14285714285715</v>
+        <v>83.33333333333333</v>
       </c>
       <c r="N8" t="n">
-        <v>132</v>
+        <v>347</v>
       </c>
       <c r="O8" t="n">
-        <v>5.989110707803992</v>
+        <v>6.077057793345009</v>
       </c>
       <c r="P8" t="n">
-        <v>194</v>
+        <v>403</v>
       </c>
       <c r="Q8" t="n">
-        <v>121</v>
+        <v>343</v>
       </c>
       <c r="R8" t="n">
-        <v>315</v>
+        <v>746</v>
       </c>
       <c r="S8" t="n">
-        <v>38.41269841269841</v>
+        <v>45.97855227882037</v>
       </c>
       <c r="T8" t="n">
-        <v>61.58730158730159</v>
+        <v>54.02144772117963</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[('Wendy', 0.7713248638838476), ('Michael', 0.3176043557168784), ('John', 0.27223230490018147), ('Peter', 0.5898366606170599), ('Tootles', 0.09074410163339383), ('Hook', 0.09074410163339383)]</t>
+          <t>[('Lucy', 0.10507880910683012), ('Mina', 0.03502626970227671), ('Jonathan', 0.017513134851138354), ('Whitby', 0.15761821366024517)]</t>
         </is>
       </c>
     </row>
@@ -1009,65 +1009,65 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3531</v>
+        <v>6050</v>
       </c>
       <c r="C9" t="n">
-        <v>20331</v>
+        <v>32507</v>
       </c>
       <c r="D9" t="n">
-        <v>12.20634920634921</v>
+        <v>16.39185750636132</v>
       </c>
       <c r="E9" t="n">
-        <v>63.54603174603174</v>
+        <v>81.7175572519084</v>
       </c>
       <c r="F9" t="n">
-        <v>315</v>
+        <v>393</v>
       </c>
       <c r="G9" t="n">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="H9" t="n">
-        <v>5.233333333333333</v>
+        <v>61.92857142857143</v>
       </c>
       <c r="I9" t="n">
-        <v>22.80833333333333</v>
+        <v>282.8928571428572</v>
       </c>
       <c r="J9" t="n">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="K9" t="n">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="L9" t="n">
-        <v>35.83333333333334</v>
+        <v>25</v>
       </c>
       <c r="M9" t="n">
-        <v>64.16666666666667</v>
+        <v>75</v>
       </c>
       <c r="N9" t="n">
-        <v>179</v>
+        <v>437</v>
       </c>
       <c r="O9" t="n">
-        <v>5.069385443217219</v>
+        <v>7.223140495867769</v>
       </c>
       <c r="P9" t="n">
-        <v>348</v>
+        <v>452</v>
       </c>
       <c r="Q9" t="n">
-        <v>211</v>
+        <v>412</v>
       </c>
       <c r="R9" t="n">
-        <v>559</v>
+        <v>864</v>
       </c>
       <c r="S9" t="n">
-        <v>37.74597495527728</v>
+        <v>47.68518518518518</v>
       </c>
       <c r="T9" t="n">
-        <v>62.25402504472272</v>
+        <v>52.31481481481482</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[('Wendy', 0.7929764939110734), ('Michael', 0.11328235627301048), ('John', 0.11328235627301048), ('Peter', 0.9629000283205891), ('First', 0.02832058906825262), ('Tootles', 0.02832058906825262), ('Smee', 0.5664117813650524), ('Hook', 0.8779382611158312)]</t>
+          <t>[('Lucy', 0.7107438016528925), ('Westenra', 0.03305785123966942), ('Hawkins', 0.049586776859504134), ('Jonathan', 0.1652892561983471), ('Billington', 0.03305785123966942)]</t>
         </is>
       </c>
     </row>
@@ -1076,65 +1076,65 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>960</v>
+        <v>5667</v>
       </c>
       <c r="C10" t="n">
-        <v>5619</v>
+        <v>30023</v>
       </c>
       <c r="D10" t="n">
-        <v>19.80392156862745</v>
+        <v>15.49104859335038</v>
       </c>
       <c r="E10" t="n">
-        <v>109.1960784313726</v>
+        <v>75.78772378516624</v>
       </c>
       <c r="F10" t="n">
-        <v>51</v>
+        <v>391</v>
       </c>
       <c r="G10" t="n">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="H10" t="n">
-        <v>3.818181818181818</v>
+        <v>90.75675675675676</v>
       </c>
       <c r="I10" t="n">
-        <v>33.90909090909091</v>
+        <v>382.027027027027</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="K10" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="L10" t="n">
-        <v>45.45454545454545</v>
+        <v>35.13513513513514</v>
       </c>
       <c r="M10" t="n">
-        <v>54.54545454545455</v>
+        <v>64.86486486486487</v>
       </c>
       <c r="N10" t="n">
-        <v>55</v>
+        <v>374</v>
       </c>
       <c r="O10" t="n">
-        <v>5.729166666666667</v>
+        <v>6.599611787541909</v>
       </c>
       <c r="P10" t="n">
-        <v>103</v>
+        <v>341</v>
       </c>
       <c r="Q10" t="n">
-        <v>46</v>
+        <v>487</v>
       </c>
       <c r="R10" t="n">
-        <v>149</v>
+        <v>828</v>
       </c>
       <c r="S10" t="n">
-        <v>30.87248322147651</v>
+        <v>58.81642512077295</v>
       </c>
       <c r="T10" t="n">
-        <v>69.12751677852349</v>
+        <v>41.18357487922705</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[('Darling', 0.10416666666666667), ('Peter', 1.3541666666666667)]</t>
+          <t>[('Harker', 0.03529204164460914), ('Lucy', 0.2823363331568731), ('Westenra', 0.19410622904535027), ('Seward', 0.1764602082230457), ('Mina', 0.07058408328921828), ('Jonathan', 0.10587612493382742), ('Whitby', 0.07058408328921828)]</t>
         </is>
       </c>
     </row>
@@ -1143,65 +1143,65 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1749</v>
+        <v>5505</v>
       </c>
       <c r="C11" t="n">
-        <v>10413</v>
+        <v>30384</v>
       </c>
       <c r="D11" t="n">
-        <v>12.42483660130719</v>
+        <v>14.19904076738609</v>
       </c>
       <c r="E11" t="n">
-        <v>67.06535947712419</v>
+        <v>71.86570743405275</v>
       </c>
       <c r="F11" t="n">
-        <v>153</v>
+        <v>417</v>
       </c>
       <c r="G11" t="n">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="H11" t="n">
-        <v>5.515151515151516</v>
+        <v>41.65060240963855</v>
       </c>
       <c r="I11" t="n">
-        <v>23.37373737373737</v>
+        <v>184.5542168674699</v>
       </c>
       <c r="J11" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="K11" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="L11" t="n">
-        <v>42.42424242424242</v>
+        <v>24.09638554216868</v>
       </c>
       <c r="M11" t="n">
-        <v>57.57575757575758</v>
+        <v>75.90361445783132</v>
       </c>
       <c r="N11" t="n">
-        <v>99</v>
+        <v>365</v>
       </c>
       <c r="O11" t="n">
-        <v>5.660377358490566</v>
+        <v>6.630336058128973</v>
       </c>
       <c r="P11" t="n">
-        <v>162</v>
+        <v>403</v>
       </c>
       <c r="Q11" t="n">
-        <v>98</v>
+        <v>473</v>
       </c>
       <c r="R11" t="n">
-        <v>260</v>
+        <v>876</v>
       </c>
       <c r="S11" t="n">
-        <v>37.69230769230769</v>
+        <v>53.99543378995434</v>
       </c>
       <c r="T11" t="n">
-        <v>62.30769230769231</v>
+        <v>46.00456621004566</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[('Pan', 0.17152658662092624), ('Wendy', 1.5437392795883362), ('Michael', 0.34305317324185247), ('John', 0.2858776443682104), ('Peter', 1.486563750714694), ('Tootles', 0.40022870211549455), ('Bell', 0.17152658662092624), ('Lily', 0.17152658662092624)]</t>
+          <t>[('Lucy', 0.6176203451407811), ('Westenra', 0.09082652134423251), ('Seward', 0.10899182561307902)]</t>
         </is>
       </c>
     </row>
@@ -1210,65 +1210,65 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2067</v>
+        <v>4703</v>
       </c>
       <c r="C12" t="n">
-        <v>12464</v>
+        <v>26547</v>
       </c>
       <c r="D12" t="n">
-        <v>11.27860696517413</v>
+        <v>15.73981191222571</v>
       </c>
       <c r="E12" t="n">
-        <v>61.01492537313433</v>
+        <v>82.22257053291536</v>
       </c>
       <c r="F12" t="n">
-        <v>201</v>
+        <v>319</v>
       </c>
       <c r="G12" t="n">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="H12" t="n">
-        <v>5.864</v>
+        <v>44.88095238095238</v>
       </c>
       <c r="I12" t="n">
-        <v>25.688</v>
+        <v>206.8571428571429</v>
       </c>
       <c r="J12" t="n">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="K12" t="n">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="L12" t="n">
-        <v>38.4</v>
+        <v>26.19047619047619</v>
       </c>
       <c r="M12" t="n">
-        <v>61.6</v>
+        <v>73.80952380952381</v>
       </c>
       <c r="N12" t="n">
-        <v>120</v>
+        <v>315</v>
       </c>
       <c r="O12" t="n">
-        <v>5.805515239477503</v>
+        <v>6.697852434616203</v>
       </c>
       <c r="P12" t="n">
-        <v>194</v>
+        <v>366</v>
       </c>
       <c r="Q12" t="n">
-        <v>113</v>
+        <v>336</v>
       </c>
       <c r="R12" t="n">
-        <v>307</v>
+        <v>702</v>
       </c>
       <c r="S12" t="n">
-        <v>36.80781758957654</v>
+        <v>47.86324786324786</v>
       </c>
       <c r="T12" t="n">
-        <v>63.19218241042346</v>
+        <v>52.13675213675214</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[('Darling', 0.14513788098693758), ('Wendy', 1.4513788098693758), ('Michael', 0.24189646831156264), ('John', 0.3386550556361877), ('Peter', 1.4513788098693758), ('Barbecue', 0.04837929366231253), ('Tootles', 0.4837929366231253), ('Bell', 0.09675858732462506)]</t>
+          <t>[('Lucy', 0.2338932596215182), ('Westenra', 0.106315118009781), ('Seward', 0.106315118009781), ('Mina', 0.0212630236019562), ('Whitby', 0.0212630236019562)]</t>
         </is>
       </c>
     </row>
@@ -1277,65 +1277,65 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1500</v>
+        <v>6720</v>
       </c>
       <c r="C13" t="n">
-        <v>8856</v>
+        <v>37365</v>
       </c>
       <c r="D13" t="n">
-        <v>21.81944444444444</v>
+        <v>16.20135746606335</v>
       </c>
       <c r="E13" t="n">
-        <v>122.0138888888889</v>
+        <v>83.53846153846153</v>
       </c>
       <c r="F13" t="n">
-        <v>72</v>
+        <v>442</v>
       </c>
       <c r="G13" t="n">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="H13" t="n">
-        <v>6.6</v>
+        <v>43.22388059701493</v>
       </c>
       <c r="I13" t="n">
-        <v>34.8</v>
+        <v>190.8955223880597</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K13" t="n">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="L13" t="n">
-        <v>40</v>
+        <v>20.8955223880597</v>
       </c>
       <c r="M13" t="n">
-        <v>60</v>
+        <v>79.1044776119403</v>
       </c>
       <c r="N13" t="n">
-        <v>92</v>
+        <v>421</v>
       </c>
       <c r="O13" t="n">
-        <v>6.133333333333334</v>
+        <v>6.264880952380953</v>
       </c>
       <c r="P13" t="n">
-        <v>109</v>
+        <v>619</v>
       </c>
       <c r="Q13" t="n">
-        <v>78</v>
+        <v>436</v>
       </c>
       <c r="R13" t="n">
-        <v>187</v>
+        <v>1055</v>
       </c>
       <c r="S13" t="n">
-        <v>41.71122994652406</v>
+        <v>41.32701421800948</v>
       </c>
       <c r="T13" t="n">
-        <v>58.28877005347594</v>
+        <v>58.67298578199052</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[('Pan', 0.26666666666666666), ('Wendy', 0.06666666666666667), ('Peter', 0.5333333333333333), ('Smee', 0.2), ('Hook', 0.7333333333333333), ('Lily', 0.13333333333333333)]</t>
+          <t>[('Harker', 0.044642857142857144), ('Lucy', 0.6696428571428571), ('Westenra', 0.05952380952380952), ('Seward', 0.0744047619047619), ('Mina', 0.02976190476190476), ('Hawkins', 0.10416666666666667), ('Hitherto', 0.01488095238095238), ('Jonathan', 0.13392857142857142)]</t>
         </is>
       </c>
     </row>
@@ -1344,65 +1344,65 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2605</v>
+        <v>6087</v>
       </c>
       <c r="C14" t="n">
-        <v>15056</v>
+        <v>33732</v>
       </c>
       <c r="D14" t="n">
-        <v>16.31764705882353</v>
+        <v>16.89033942558747</v>
       </c>
       <c r="E14" t="n">
-        <v>87.57058823529412</v>
+        <v>87.0757180156658</v>
       </c>
       <c r="F14" t="n">
-        <v>170</v>
+        <v>383</v>
       </c>
       <c r="G14" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="H14" t="n">
-        <v>4.214285714285714</v>
+        <v>48.07692307692308</v>
       </c>
       <c r="I14" t="n">
-        <v>18.64285714285714</v>
+        <v>219.3230769230769</v>
       </c>
       <c r="J14" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K14" t="n">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="L14" t="n">
-        <v>39.28571428571428</v>
+        <v>26.15384615384615</v>
       </c>
       <c r="M14" t="n">
-        <v>60.71428571428572</v>
+        <v>73.84615384615384</v>
       </c>
       <c r="N14" t="n">
-        <v>156</v>
+        <v>441</v>
       </c>
       <c r="O14" t="n">
-        <v>5.988483685220729</v>
+        <v>7.244948250369641</v>
       </c>
       <c r="P14" t="n">
-        <v>266</v>
+        <v>423</v>
       </c>
       <c r="Q14" t="n">
-        <v>149</v>
+        <v>456</v>
       </c>
       <c r="R14" t="n">
-        <v>415</v>
+        <v>879</v>
       </c>
       <c r="S14" t="n">
-        <v>35.90361445783132</v>
+        <v>51.87713310580205</v>
       </c>
       <c r="T14" t="n">
-        <v>64.09638554216868</v>
+        <v>48.12286689419795</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[('Wendy', 0.2687140115163148), ('Peter', 0.8061420345489443), ('First', 0.03838771593090211), ('Bell', 0.11516314779270634), ('Hook', 0.7293666026871402), ('Lily', 0.03838771593090211)]</t>
+          <t>[('Lucy', 0.2628552653195334), ('Westenra', 0.09857072449482504), ('Hawkins', 0.016428454082470838), ('Jonathan', 0.27928371940200425), ('Whitby', 0.016428454082470838)]</t>
         </is>
       </c>
     </row>
@@ -1411,65 +1411,65 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2085</v>
+        <v>5951</v>
       </c>
       <c r="C15" t="n">
-        <v>12188</v>
+        <v>32198</v>
       </c>
       <c r="D15" t="n">
-        <v>13.63030303030303</v>
+        <v>14.74133949191686</v>
       </c>
       <c r="E15" t="n">
-        <v>72.87272727272727</v>
+        <v>73.36258660508084</v>
       </c>
       <c r="F15" t="n">
-        <v>165</v>
+        <v>433</v>
       </c>
       <c r="G15" t="n">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="H15" t="n">
-        <v>7.017241379310345</v>
+        <v>32.71428571428572</v>
       </c>
       <c r="I15" t="n">
-        <v>30.24137931034483</v>
+        <v>140.3333333333333</v>
       </c>
       <c r="J15" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K15" t="n">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="L15" t="n">
-        <v>39.6551724137931</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="M15" t="n">
-        <v>60.3448275862069</v>
+        <v>76.19047619047619</v>
       </c>
       <c r="N15" t="n">
-        <v>125</v>
+        <v>384</v>
       </c>
       <c r="O15" t="n">
-        <v>5.995203836930456</v>
+        <v>6.452697025709965</v>
       </c>
       <c r="P15" t="n">
-        <v>209</v>
+        <v>333</v>
       </c>
       <c r="Q15" t="n">
-        <v>143</v>
+        <v>600</v>
       </c>
       <c r="R15" t="n">
-        <v>352</v>
+        <v>933</v>
       </c>
       <c r="S15" t="n">
-        <v>40.625</v>
+        <v>64.30868167202573</v>
       </c>
       <c r="T15" t="n">
-        <v>59.375</v>
+        <v>35.69131832797428</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[('Wendy', 0.38369304556354916), ('Michael', 0.23980815347721823), ('John', 0.4316546762589928), ('Peter', 0.14388489208633093), ('Barbecue', 0.14388489208633093), ('Tootles', 0.19184652278177458), ('Jukes', 0.047961630695443645), ('Smee', 0.5755395683453237), ('Hook', 1.0071942446043165)]</t>
+          <t>[('Harker', 0.1008233910267182), ('Lucy', 0.4200974626113258), ('Seward', 0.06721559401781213), ('Mina', 0.31927407158460763), ('Jonathan', 0.4032935641068728)]</t>
         </is>
       </c>
     </row>
@@ -1478,65 +1478,65 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2858</v>
+        <v>5382</v>
       </c>
       <c r="C16" t="n">
-        <v>16907</v>
+        <v>29349</v>
       </c>
       <c r="D16" t="n">
-        <v>14.47641509433962</v>
+        <v>15.74246575342466</v>
       </c>
       <c r="E16" t="n">
-        <v>78.75471698113208</v>
+        <v>79.41095890410959</v>
       </c>
       <c r="F16" t="n">
-        <v>212</v>
+        <v>365</v>
       </c>
       <c r="G16" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H16" t="n">
-        <v>5.588888888888889</v>
+        <v>32.80952380952381</v>
       </c>
       <c r="I16" t="n">
-        <v>24.97777777777778</v>
+        <v>141.6547619047619</v>
       </c>
       <c r="J16" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="K16" t="n">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="L16" t="n">
-        <v>38.88888888888889</v>
+        <v>13.09523809523809</v>
       </c>
       <c r="M16" t="n">
-        <v>61.11111111111111</v>
+        <v>86.9047619047619</v>
       </c>
       <c r="N16" t="n">
-        <v>138</v>
+        <v>369</v>
       </c>
       <c r="O16" t="n">
-        <v>4.828551434569629</v>
+        <v>6.8561872909699</v>
       </c>
       <c r="P16" t="n">
-        <v>308</v>
+        <v>395</v>
       </c>
       <c r="Q16" t="n">
-        <v>151</v>
+        <v>459</v>
       </c>
       <c r="R16" t="n">
-        <v>459</v>
+        <v>854</v>
       </c>
       <c r="S16" t="n">
-        <v>32.89760348583878</v>
+        <v>53.74707259953161</v>
       </c>
       <c r="T16" t="n">
-        <v>67.10239651416121</v>
+        <v>46.25292740046839</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[('Pan', 0.10496850944716585), ('Wendy', 0.17494751574527642), ('Michael', 0.03498950314905528), ('John', 0.06997900629811056), ('Peter', 1.0846745976207137), ('First', 0.03498950314905528), ('Barbecue', 0.03498950314905528), ('Tom', 0.06997900629811056), ('Jukes', 0.17494751574527642), ('Cookson', 0.06997900629811056), ('Smee', 0.06997900629811056), ('Mullins', 0.13995801259622112), ('Hook', 1.504548635409377)]</t>
+          <t>[('Harker', 0.01858045336306206), ('Lucy', 0.29728725380899296), ('Westenra', 0.01858045336306206), ('Jonathan', 0.01858045336306206)]</t>
         </is>
       </c>
     </row>
@@ -1545,65 +1545,65 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2698</v>
+        <v>4217</v>
       </c>
       <c r="C17" t="n">
-        <v>15330</v>
+        <v>23581</v>
       </c>
       <c r="D17" t="n">
-        <v>14.76020408163265</v>
+        <v>19.09442060085837</v>
       </c>
       <c r="E17" t="n">
-        <v>77.21938775510205</v>
+        <v>100.2103004291845</v>
       </c>
       <c r="F17" t="n">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="G17" t="n">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="H17" t="n">
-        <v>6.550724637681159</v>
+        <v>63.81481481481482</v>
       </c>
       <c r="I17" t="n">
-        <v>26.8695652173913</v>
+        <v>293.9259259259259</v>
       </c>
       <c r="J17" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="K17" t="n">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="L17" t="n">
-        <v>37.68115942028985</v>
+        <v>25.92592592592593</v>
       </c>
       <c r="M17" t="n">
-        <v>62.31884057971015</v>
+        <v>74.07407407407408</v>
       </c>
       <c r="N17" t="n">
-        <v>146</v>
+        <v>300</v>
       </c>
       <c r="O17" t="n">
-        <v>5.411415863602668</v>
+        <v>7.114062129475931</v>
       </c>
       <c r="P17" t="n">
-        <v>223</v>
+        <v>362</v>
       </c>
       <c r="Q17" t="n">
-        <v>171</v>
+        <v>265</v>
       </c>
       <c r="R17" t="n">
-        <v>394</v>
+        <v>627</v>
       </c>
       <c r="S17" t="n">
-        <v>43.4010152284264</v>
+        <v>42.26475279106858</v>
       </c>
       <c r="T17" t="n">
-        <v>56.5989847715736</v>
+        <v>57.73524720893142</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[('Pan', 0.037064492216456635), ('Darling', 0.704225352112676), ('Wendy', 0.9266123054114158), ('Michael', 0.37064492216456635), ('John', 0.5559673832468495), ('Peter', 0.25945144551519644)]</t>
+          <t>[('Lucy', 0.37941664690538296), ('Seward', 0.023713540431586435)]</t>
         </is>
       </c>
     </row>
@@ -1612,65 +1612,735 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3164</v>
+        <v>5216</v>
       </c>
       <c r="C18" t="n">
-        <v>17776</v>
+        <v>28781</v>
       </c>
       <c r="D18" t="n">
-        <v>12.21631205673759</v>
+        <v>15.44598337950139</v>
       </c>
       <c r="E18" t="n">
-        <v>62.03900709219858</v>
+        <v>78.72853185595568</v>
       </c>
       <c r="F18" t="n">
-        <v>282</v>
+        <v>361</v>
       </c>
       <c r="G18" t="n">
-        <v>149</v>
+        <v>64</v>
       </c>
       <c r="H18" t="n">
-        <v>5.416107382550336</v>
+        <v>58.671875</v>
       </c>
       <c r="I18" t="n">
-        <v>22.2013422818792</v>
+        <v>261.875</v>
       </c>
       <c r="J18" t="n">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="K18" t="n">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="L18" t="n">
-        <v>34.8993288590604</v>
+        <v>20.3125</v>
       </c>
       <c r="M18" t="n">
-        <v>65.1006711409396</v>
+        <v>79.6875</v>
       </c>
       <c r="N18" t="n">
-        <v>187</v>
+        <v>307</v>
       </c>
       <c r="O18" t="n">
-        <v>5.910240202275601</v>
+        <v>5.885736196319018</v>
       </c>
       <c r="P18" t="n">
-        <v>299</v>
+        <v>399</v>
       </c>
       <c r="Q18" t="n">
-        <v>206</v>
+        <v>414</v>
       </c>
       <c r="R18" t="n">
-        <v>505</v>
+        <v>813</v>
       </c>
       <c r="S18" t="n">
-        <v>40.79207920792079</v>
+        <v>50.92250922509225</v>
       </c>
       <c r="T18" t="n">
-        <v>59.20792079207921</v>
+        <v>49.07749077490775</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>[('Darling', 0.37926675094816686), ('Wendy', 1.4538558786346396), ('Michael', 0.22123893805309736), ('Peter', 1.359039190897598), ('Tootles', 0.0632111251580278), ('Bell', 0.0632111251580278)]</t>
+          <t>[('Dracula', 0.019171779141104295), ('Harker', 0.3642638036809816), ('Lucy', 0.4217791411042945), ('Seward', 0.2684049079754601), ('Jonathan', 0.19171779141104295), ('Whitby', 0.19171779141104295), ('Billington', 0.07668711656441718)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>6361</v>
+      </c>
+      <c r="C19" t="n">
+        <v>35422</v>
+      </c>
+      <c r="D19" t="n">
+        <v>17.18320610687023</v>
+      </c>
+      <c r="E19" t="n">
+        <v>89.13486005089058</v>
+      </c>
+      <c r="F19" t="n">
+        <v>393</v>
+      </c>
+      <c r="G19" t="n">
+        <v>64</v>
+      </c>
+      <c r="H19" t="n">
+        <v>56.140625</v>
+      </c>
+      <c r="I19" t="n">
+        <v>254.171875</v>
+      </c>
+      <c r="J19" t="n">
+        <v>15</v>
+      </c>
+      <c r="K19" t="n">
+        <v>49</v>
+      </c>
+      <c r="L19" t="n">
+        <v>23.4375</v>
+      </c>
+      <c r="M19" t="n">
+        <v>76.5625</v>
+      </c>
+      <c r="N19" t="n">
+        <v>379</v>
+      </c>
+      <c r="O19" t="n">
+        <v>5.958182675679924</v>
+      </c>
+      <c r="P19" t="n">
+        <v>395</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>540</v>
+      </c>
+      <c r="R19" t="n">
+        <v>935</v>
+      </c>
+      <c r="S19" t="n">
+        <v>57.75401069518717</v>
+      </c>
+      <c r="T19" t="n">
+        <v>42.24598930481283</v>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>[('Dracula', 0.07860399308284861), ('Harker', 0.282974375098255), ('Lucy', 0.07860399308284861), ('Seward', 0.2672535764816853), ('Mina', 0.11004559031598805), ('Jonathan', 0.15720798616569723), ('Whitby', 0.0628831944662789), ('Voivode', 0.015720798616569723), ('Woe', 0.015720798616569723)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5289</v>
+      </c>
+      <c r="C20" t="n">
+        <v>29096</v>
+      </c>
+      <c r="D20" t="n">
+        <v>18.50993377483444</v>
+      </c>
+      <c r="E20" t="n">
+        <v>95.3476821192053</v>
+      </c>
+      <c r="F20" t="n">
+        <v>302</v>
+      </c>
+      <c r="G20" t="n">
+        <v>33</v>
+      </c>
+      <c r="H20" t="n">
+        <v>33.24242424242424</v>
+      </c>
+      <c r="I20" t="n">
+        <v>144.8787878787879</v>
+      </c>
+      <c r="J20" t="n">
+        <v>12</v>
+      </c>
+      <c r="K20" t="n">
+        <v>21</v>
+      </c>
+      <c r="L20" t="n">
+        <v>36.36363636363637</v>
+      </c>
+      <c r="M20" t="n">
+        <v>63.63636363636363</v>
+      </c>
+      <c r="N20" t="n">
+        <v>417</v>
+      </c>
+      <c r="O20" t="n">
+        <v>7.884288145207034</v>
+      </c>
+      <c r="P20" t="n">
+        <v>440</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>373</v>
+      </c>
+      <c r="R20" t="n">
+        <v>813</v>
+      </c>
+      <c r="S20" t="n">
+        <v>45.87945879458795</v>
+      </c>
+      <c r="T20" t="n">
+        <v>54.12054120541205</v>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>[('Harker', 0.09453582907922102), ('Lucy', 0.05672149744753262), ('Seward', 0.17016449234259784), ('Mina', 0.13235016071090944), ('Jonathan', 0.2647003214218189)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5505</v>
+      </c>
+      <c r="C21" t="n">
+        <v>30854</v>
+      </c>
+      <c r="D21" t="n">
+        <v>15.99727520435967</v>
+      </c>
+      <c r="E21" t="n">
+        <v>83.07356948228883</v>
+      </c>
+      <c r="F21" t="n">
+        <v>367</v>
+      </c>
+      <c r="G21" t="n">
+        <v>82</v>
+      </c>
+      <c r="H21" t="n">
+        <v>25.13414634146341</v>
+      </c>
+      <c r="I21" t="n">
+        <v>113.4024390243902</v>
+      </c>
+      <c r="J21" t="n">
+        <v>22</v>
+      </c>
+      <c r="K21" t="n">
+        <v>60</v>
+      </c>
+      <c r="L21" t="n">
+        <v>26.82926829268293</v>
+      </c>
+      <c r="M21" t="n">
+        <v>73.17073170731707</v>
+      </c>
+      <c r="N21" t="n">
+        <v>364</v>
+      </c>
+      <c r="O21" t="n">
+        <v>6.612170753860127</v>
+      </c>
+      <c r="P21" t="n">
+        <v>415</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>398</v>
+      </c>
+      <c r="R21" t="n">
+        <v>813</v>
+      </c>
+      <c r="S21" t="n">
+        <v>48.95448954489545</v>
+      </c>
+      <c r="T21" t="n">
+        <v>51.04551045510455</v>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>[('Harker', 0.1271571298819255), ('Seward', 0.10899182561307902), ('Mina', 0.09082652134423251)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5687</v>
+      </c>
+      <c r="C22" t="n">
+        <v>31746</v>
+      </c>
+      <c r="D22" t="n">
+        <v>16.62087912087912</v>
+      </c>
+      <c r="E22" t="n">
+        <v>86.21703296703296</v>
+      </c>
+      <c r="F22" t="n">
+        <v>364</v>
+      </c>
+      <c r="G22" t="n">
+        <v>64</v>
+      </c>
+      <c r="H22" t="n">
+        <v>41.8125</v>
+      </c>
+      <c r="I22" t="n">
+        <v>182.1875</v>
+      </c>
+      <c r="J22" t="n">
+        <v>17</v>
+      </c>
+      <c r="K22" t="n">
+        <v>47</v>
+      </c>
+      <c r="L22" t="n">
+        <v>26.5625</v>
+      </c>
+      <c r="M22" t="n">
+        <v>73.4375</v>
+      </c>
+      <c r="N22" t="n">
+        <v>370</v>
+      </c>
+      <c r="O22" t="n">
+        <v>6.506066467381748</v>
+      </c>
+      <c r="P22" t="n">
+        <v>541</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>402</v>
+      </c>
+      <c r="R22" t="n">
+        <v>943</v>
+      </c>
+      <c r="S22" t="n">
+        <v>42.62990455991516</v>
+      </c>
+      <c r="T22" t="n">
+        <v>57.37009544008484</v>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>[('Harker', 0.2110075611042729), ('Lucy', 0.017583963425356074), ('Mina', 0.12308774397749253), ('Jonathan', 0.12308774397749253)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5053</v>
+      </c>
+      <c r="C23" t="n">
+        <v>27733</v>
+      </c>
+      <c r="D23" t="n">
+        <v>18.72631578947368</v>
+      </c>
+      <c r="E23" t="n">
+        <v>96.31228070175439</v>
+      </c>
+      <c r="F23" t="n">
+        <v>285</v>
+      </c>
+      <c r="G23" t="n">
+        <v>53</v>
+      </c>
+      <c r="H23" t="n">
+        <v>47.26415094339622</v>
+      </c>
+      <c r="I23" t="n">
+        <v>210.9622641509434</v>
+      </c>
+      <c r="J23" t="n">
+        <v>13</v>
+      </c>
+      <c r="K23" t="n">
+        <v>40</v>
+      </c>
+      <c r="L23" t="n">
+        <v>24.52830188679245</v>
+      </c>
+      <c r="M23" t="n">
+        <v>75.47169811320755</v>
+      </c>
+      <c r="N23" t="n">
+        <v>295</v>
+      </c>
+      <c r="O23" t="n">
+        <v>5.838115970710469</v>
+      </c>
+      <c r="P23" t="n">
+        <v>376</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>408</v>
+      </c>
+      <c r="R23" t="n">
+        <v>784</v>
+      </c>
+      <c r="S23" t="n">
+        <v>52.04081632653061</v>
+      </c>
+      <c r="T23" t="n">
+        <v>47.95918367346939</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>[('Lucy', 0.019790223629527013), ('Seward', 0.09895111814763506), ('Mina', 0.4353849198495943)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5258</v>
+      </c>
+      <c r="C24" t="n">
+        <v>29152</v>
+      </c>
+      <c r="D24" t="n">
+        <v>15.16981132075472</v>
+      </c>
+      <c r="E24" t="n">
+        <v>77.57951482479784</v>
+      </c>
+      <c r="F24" t="n">
+        <v>371</v>
+      </c>
+      <c r="G24" t="n">
+        <v>53</v>
+      </c>
+      <c r="H24" t="n">
+        <v>66.69811320754717</v>
+      </c>
+      <c r="I24" t="n">
+        <v>298.4528301886792</v>
+      </c>
+      <c r="J24" t="n">
+        <v>11</v>
+      </c>
+      <c r="K24" t="n">
+        <v>42</v>
+      </c>
+      <c r="L24" t="n">
+        <v>20.75471698113208</v>
+      </c>
+      <c r="M24" t="n">
+        <v>79.24528301886792</v>
+      </c>
+      <c r="N24" t="n">
+        <v>319</v>
+      </c>
+      <c r="O24" t="n">
+        <v>6.066945606694561</v>
+      </c>
+      <c r="P24" t="n">
+        <v>349</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>449</v>
+      </c>
+      <c r="R24" t="n">
+        <v>798</v>
+      </c>
+      <c r="S24" t="n">
+        <v>56.265664160401</v>
+      </c>
+      <c r="T24" t="n">
+        <v>43.734335839599</v>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>[('Harker', 0.3613541270445036), ('Lucy', 0.03803727653100038), ('Seward', 0.03803727653100038), ('Mina', 0.399391403575504), ('Jonathan', 0.13313046785850133)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5978</v>
+      </c>
+      <c r="C25" t="n">
+        <v>31819</v>
+      </c>
+      <c r="D25" t="n">
+        <v>16.64659685863874</v>
+      </c>
+      <c r="E25" t="n">
+        <v>82.29842931937172</v>
+      </c>
+      <c r="F25" t="n">
+        <v>382</v>
+      </c>
+      <c r="G25" t="n">
+        <v>36</v>
+      </c>
+      <c r="H25" t="n">
+        <v>58.22222222222222</v>
+      </c>
+      <c r="I25" t="n">
+        <v>256.0555555555555</v>
+      </c>
+      <c r="J25" t="n">
+        <v>8</v>
+      </c>
+      <c r="K25" t="n">
+        <v>28</v>
+      </c>
+      <c r="L25" t="n">
+        <v>22.22222222222222</v>
+      </c>
+      <c r="M25" t="n">
+        <v>77.77777777777777</v>
+      </c>
+      <c r="N25" t="n">
+        <v>373</v>
+      </c>
+      <c r="O25" t="n">
+        <v>6.2395449983272</v>
+      </c>
+      <c r="P25" t="n">
+        <v>263</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>601</v>
+      </c>
+      <c r="R25" t="n">
+        <v>864</v>
+      </c>
+      <c r="S25" t="n">
+        <v>69.56018518518519</v>
+      </c>
+      <c r="T25" t="n">
+        <v>30.43981481481481</v>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>[('Dracula', 0.03345600535296086), ('Harker', 0.234192037470726), ('Mina', 0.5018400802944128), ('Jonathan', 0.117096018735363)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5969</v>
+      </c>
+      <c r="C26" t="n">
+        <v>32381</v>
+      </c>
+      <c r="D26" t="n">
+        <v>16.38144329896907</v>
+      </c>
+      <c r="E26" t="n">
+        <v>82.45876288659794</v>
+      </c>
+      <c r="F26" t="n">
+        <v>388</v>
+      </c>
+      <c r="G26" t="n">
+        <v>61</v>
+      </c>
+      <c r="H26" t="n">
+        <v>58.50819672131148</v>
+      </c>
+      <c r="I26" t="n">
+        <v>259.7049180327869</v>
+      </c>
+      <c r="J26" t="n">
+        <v>14</v>
+      </c>
+      <c r="K26" t="n">
+        <v>47</v>
+      </c>
+      <c r="L26" t="n">
+        <v>22.95081967213115</v>
+      </c>
+      <c r="M26" t="n">
+        <v>77.04918032786885</v>
+      </c>
+      <c r="N26" t="n">
+        <v>350</v>
+      </c>
+      <c r="O26" t="n">
+        <v>5.863628748534093</v>
+      </c>
+      <c r="P26" t="n">
+        <v>301</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>526</v>
+      </c>
+      <c r="R26" t="n">
+        <v>827</v>
+      </c>
+      <c r="S26" t="n">
+        <v>63.60338573155985</v>
+      </c>
+      <c r="T26" t="n">
+        <v>36.39661426844015</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>[('Harker', 0.38532417490366894), ('Lucy', 0.06701289998324678), ('Seward', 0.05025967498743508), ('Mina', 0.16753224995811694), ('Jonathan', 0.08376612497905847)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>6908</v>
+      </c>
+      <c r="C27" t="n">
+        <v>36947</v>
+      </c>
+      <c r="D27" t="n">
+        <v>15.54105263157895</v>
+      </c>
+      <c r="E27" t="n">
+        <v>76.78526315789473</v>
+      </c>
+      <c r="F27" t="n">
+        <v>475</v>
+      </c>
+      <c r="G27" t="n">
+        <v>32</v>
+      </c>
+      <c r="H27" t="n">
+        <v>135.9375</v>
+      </c>
+      <c r="I27" t="n">
+        <v>582.0625</v>
+      </c>
+      <c r="J27" t="n">
+        <v>8</v>
+      </c>
+      <c r="K27" t="n">
+        <v>24</v>
+      </c>
+      <c r="L27" t="n">
+        <v>25</v>
+      </c>
+      <c r="M27" t="n">
+        <v>75</v>
+      </c>
+      <c r="N27" t="n">
+        <v>378</v>
+      </c>
+      <c r="O27" t="n">
+        <v>5.471916618413434</v>
+      </c>
+      <c r="P27" t="n">
+        <v>384</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>587</v>
+      </c>
+      <c r="R27" t="n">
+        <v>971</v>
+      </c>
+      <c r="S27" t="n">
+        <v>60.45314109165808</v>
+      </c>
+      <c r="T27" t="n">
+        <v>39.54685890834192</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>[('Harker', 0.2026635784597568), ('Seward', 0.08685581933989578), ('Mina', 0.27504342790966996), ('Jonathan', 0.26056745801968734)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>7762</v>
+      </c>
+      <c r="C28" t="n">
+        <v>42126</v>
+      </c>
+      <c r="D28" t="n">
+        <v>17.65450643776824</v>
+      </c>
+      <c r="E28" t="n">
+        <v>89.40128755364807</v>
+      </c>
+      <c r="F28" t="n">
+        <v>466</v>
+      </c>
+      <c r="G28" t="n">
+        <v>35</v>
+      </c>
+      <c r="H28" t="n">
+        <v>161.6285714285714</v>
+      </c>
+      <c r="I28" t="n">
+        <v>717.1142857142858</v>
+      </c>
+      <c r="J28" t="n">
+        <v>7</v>
+      </c>
+      <c r="K28" t="n">
+        <v>28</v>
+      </c>
+      <c r="L28" t="n">
+        <v>20</v>
+      </c>
+      <c r="M28" t="n">
+        <v>80</v>
+      </c>
+      <c r="N28" t="n">
+        <v>509</v>
+      </c>
+      <c r="O28" t="n">
+        <v>6.557588250450915</v>
+      </c>
+      <c r="P28" t="n">
+        <v>542</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>569</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1111</v>
+      </c>
+      <c r="S28" t="n">
+        <v>51.21512151215121</v>
+      </c>
+      <c r="T28" t="n">
+        <v>48.78487848784879</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>[('Dracula', 0.03864983251739242), ('Seward', 0.1030662200463798), ('Mina', 0.3993816026797217), ('Jonathan', 0.3091986601391394)]</t>
         </is>
       </c>
     </row>

--- a/MachineBookExtract/output/Peter CHAPTERS.xlsx
+++ b/MachineBookExtract/output/Peter CHAPTERS.xlsx
@@ -540,16 +540,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5906</v>
+        <v>5917</v>
       </c>
       <c r="C2" t="n">
-        <v>36340</v>
+        <v>36351</v>
       </c>
       <c r="D2" t="n">
-        <v>13.69058295964126</v>
+        <v>13.7152466367713</v>
       </c>
       <c r="E2" t="n">
-        <v>73.63793103448276</v>
+        <v>73.66163793103448</v>
       </c>
       <c r="F2" t="n">
         <v>446</v>
@@ -558,10 +558,10 @@
         <v>137</v>
       </c>
       <c r="H2" t="n">
-        <v>18.83211678832117</v>
+        <v>18.87591240875912</v>
       </c>
       <c r="I2" t="n">
-        <v>93.10218978102189</v>
+        <v>93.07299270072993</v>
       </c>
       <c r="J2" t="n">
         <v>19</v>
@@ -579,7 +579,7 @@
         <v>384</v>
       </c>
       <c r="O2" t="n">
-        <v>6.50186251269895</v>
+        <v>6.489775223931046</v>
       </c>
       <c r="P2" t="n">
         <v>444</v>
@@ -598,7 +598,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[('Marley', 0.47409414155096513), ('Scrooge', 2.150355570606163), ('Dunstan', 0.016931933626820182), ('Weather', 0.016931933626820182), ('Star', 0.016931933626820182), ('Page', 0.2709109380291229)]</t>
+          <t>[('Marley', 0.47321277674497214), ('Scrooge', 2.146357951664695), ('Dunstan', 0.01690045631232043), ('Weather', 0.01690045631232043), ('Star', 0.01690045631232043), ('Page', 0.2704073009971269)]</t>
         </is>
       </c>
     </row>
@@ -808,16 +808,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2206</v>
+        <v>2211</v>
       </c>
       <c r="C6" t="n">
-        <v>13120</v>
+        <v>13125</v>
       </c>
       <c r="D6" t="n">
-        <v>9.487903225806452</v>
+        <v>9.508064516129032</v>
       </c>
       <c r="E6" t="n">
-        <v>47.03112840466926</v>
+        <v>47.05058365758755</v>
       </c>
       <c r="F6" t="n">
         <v>248</v>
@@ -829,7 +829,7 @@
         <v>19.04545454545455</v>
       </c>
       <c r="I6" t="n">
-        <v>89.25757575757575</v>
+        <v>89.24242424242425</v>
       </c>
       <c r="J6" t="n">
         <v>17</v>
@@ -847,7 +847,7 @@
         <v>112</v>
       </c>
       <c r="O6" t="n">
-        <v>5.077062556663645</v>
+        <v>5.06558118498417</v>
       </c>
       <c r="P6" t="n">
         <v>158</v>
@@ -866,7 +866,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[('Marley', 0.1359927470534905), ('Scrooge', 1.85856754306437), ('Page', 0.3173164097914778)]</t>
+          <t>[('Marley', 0.13568521031207598), ('Scrooge', 1.854364540931705), ('Page', 0.31659882406151063)]</t>
         </is>
       </c>
     </row>

--- a/MachineBookExtract/output/Peter CHAPTERS.xlsx
+++ b/MachineBookExtract/output/Peter CHAPTERS.xlsx
@@ -543,37 +543,37 @@
         <v>5917</v>
       </c>
       <c r="C2" t="n">
-        <v>36351</v>
+        <v>37197</v>
       </c>
       <c r="D2" t="n">
-        <v>13.7152466367713</v>
+        <v>15.48430493273543</v>
       </c>
       <c r="E2" t="n">
-        <v>73.66163793103448</v>
+        <v>75.36206896551724</v>
       </c>
       <c r="F2" t="n">
         <v>446</v>
       </c>
       <c r="G2" t="n">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="H2" t="n">
-        <v>18.87591240875912</v>
+        <v>12.45294117647059</v>
       </c>
       <c r="I2" t="n">
-        <v>93.07299270072993</v>
+        <v>50.70588235294117</v>
       </c>
       <c r="J2" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="K2" t="n">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="L2" t="n">
-        <v>13.86861313868613</v>
+        <v>24.70588235294118</v>
       </c>
       <c r="M2" t="n">
-        <v>86.13138686131387</v>
+        <v>75.29411764705883</v>
       </c>
       <c r="N2" t="n">
         <v>384</v>
@@ -610,37 +610,37 @@
         <v>5697</v>
       </c>
       <c r="C3" t="n">
-        <v>34239</v>
+        <v>35020</v>
       </c>
       <c r="D3" t="n">
-        <v>13.82660332541568</v>
+        <v>15.53444180522565</v>
       </c>
       <c r="E3" t="n">
-        <v>72.17954545454545</v>
+        <v>73.81363636363636</v>
       </c>
       <c r="F3" t="n">
         <v>421</v>
       </c>
       <c r="G3" t="n">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="H3" t="n">
-        <v>16.71666666666667</v>
+        <v>15.96503496503496</v>
       </c>
       <c r="I3" t="n">
-        <v>80.15833333333333</v>
+        <v>65.06293706293707</v>
       </c>
       <c r="J3" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K3" t="n">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="L3" t="n">
-        <v>22.5</v>
+        <v>13.98601398601399</v>
       </c>
       <c r="M3" t="n">
-        <v>77.5</v>
+        <v>86.01398601398601</v>
       </c>
       <c r="N3" t="n">
         <v>387</v>
@@ -677,37 +677,37 @@
         <v>7593</v>
       </c>
       <c r="C4" t="n">
-        <v>46364</v>
+        <v>47319</v>
       </c>
       <c r="D4" t="n">
-        <v>17.25503355704698</v>
+        <v>19.24832214765101</v>
       </c>
       <c r="E4" t="n">
-        <v>93.50749464668094</v>
+        <v>95.4154175588865</v>
       </c>
       <c r="F4" t="n">
         <v>447</v>
       </c>
       <c r="G4" t="n">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="H4" t="n">
-        <v>14.65454545454545</v>
+        <v>12.37404580152672</v>
       </c>
       <c r="I4" t="n">
-        <v>69.75454545454545</v>
+        <v>47.61068702290076</v>
       </c>
       <c r="J4" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="K4" t="n">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="L4" t="n">
-        <v>20</v>
+        <v>25.95419847328244</v>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>74.04580152671755</v>
       </c>
       <c r="N4" t="n">
         <v>560</v>
@@ -744,37 +744,37 @@
         <v>4912</v>
       </c>
       <c r="C5" t="n">
-        <v>28919</v>
+        <v>29623</v>
       </c>
       <c r="D5" t="n">
-        <v>11.96091954022988</v>
+        <v>13.50574712643678</v>
       </c>
       <c r="E5" t="n">
-        <v>61.40492170022372</v>
+        <v>62.9082774049217</v>
       </c>
       <c r="F5" t="n">
         <v>435</v>
       </c>
       <c r="G5" t="n">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="H5" t="n">
-        <v>21.77611940298507</v>
+        <v>14.06962025316456</v>
       </c>
       <c r="I5" t="n">
-        <v>103.9701492537313</v>
+        <v>52.63291139240506</v>
       </c>
       <c r="J5" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K5" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="L5" t="n">
-        <v>21.64179104477612</v>
+        <v>30.37974683544304</v>
       </c>
       <c r="M5" t="n">
-        <v>78.35820895522389</v>
+        <v>69.62025316455696</v>
       </c>
       <c r="N5" t="n">
         <v>310</v>
@@ -811,37 +811,37 @@
         <v>2211</v>
       </c>
       <c r="C6" t="n">
-        <v>13125</v>
+        <v>13464</v>
       </c>
       <c r="D6" t="n">
-        <v>9.508064516129032</v>
+        <v>10.75</v>
       </c>
       <c r="E6" t="n">
-        <v>47.05058365758755</v>
+        <v>48.24902723735408</v>
       </c>
       <c r="F6" t="n">
         <v>248</v>
       </c>
       <c r="G6" t="n">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="H6" t="n">
-        <v>19.04545454545455</v>
+        <v>11.68354430379747</v>
       </c>
       <c r="I6" t="n">
-        <v>89.24242424242425</v>
+        <v>44.65822784810127</v>
       </c>
       <c r="J6" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K6" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L6" t="n">
-        <v>25.75757575757576</v>
+        <v>30.37974683544304</v>
       </c>
       <c r="M6" t="n">
-        <v>74.24242424242425</v>
+        <v>69.62025316455696</v>
       </c>
       <c r="N6" t="n">
         <v>112</v>

--- a/MachineBookExtract/output/Peter CHAPTERS.xlsx
+++ b/MachineBookExtract/output/Peter CHAPTERS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,65 +540,65 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5917</v>
+        <v>2182</v>
       </c>
       <c r="C2" t="n">
-        <v>37197</v>
+        <v>11556</v>
       </c>
       <c r="D2" t="n">
-        <v>15.48430493273543</v>
+        <v>29.22</v>
       </c>
       <c r="E2" t="n">
-        <v>75.36206896551724</v>
+        <v>133.28</v>
       </c>
       <c r="F2" t="n">
-        <v>446</v>
+        <v>85</v>
       </c>
       <c r="G2" t="n">
-        <v>170</v>
+        <v>39</v>
       </c>
       <c r="H2" t="n">
-        <v>12.45294117647059</v>
+        <v>13.02564102564103</v>
       </c>
       <c r="I2" t="n">
-        <v>50.70588235294117</v>
+        <v>49.48717948717949</v>
       </c>
       <c r="J2" t="n">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="K2" t="n">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="L2" t="n">
-        <v>24.70588235294118</v>
+        <v>28.2051282051282</v>
       </c>
       <c r="M2" t="n">
-        <v>75.29411764705883</v>
+        <v>71.7948717948718</v>
       </c>
       <c r="N2" t="n">
-        <v>384</v>
+        <v>118</v>
       </c>
       <c r="O2" t="n">
-        <v>6.489775223931046</v>
+        <v>5.40788267644363</v>
       </c>
       <c r="P2" t="n">
-        <v>444</v>
+        <v>167</v>
       </c>
       <c r="Q2" t="n">
-        <v>324</v>
+        <v>132</v>
       </c>
       <c r="R2" t="n">
-        <v>768</v>
+        <v>299</v>
       </c>
       <c r="S2" t="n">
-        <v>42.1875</v>
+        <v>44.14715719063545</v>
       </c>
       <c r="T2" t="n">
-        <v>57.8125</v>
+        <v>55.85284280936455</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[('Marley', 0.47321277674497214), ('Scrooge', 2.146357951664695), ('Dunstan', 0.01690045631232043), ('Weather', 0.01690045631232043), ('Star', 0.01690045631232043), ('Page', 0.2704073009971269)]</t>
+          <t>[('Alice', 1.2832263978001832)]</t>
         </is>
       </c>
     </row>
@@ -607,65 +607,65 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5697</v>
+        <v>1952</v>
       </c>
       <c r="C3" t="n">
-        <v>35020</v>
+        <v>10946</v>
       </c>
       <c r="D3" t="n">
-        <v>15.53444180522565</v>
+        <v>19.42</v>
       </c>
       <c r="E3" t="n">
-        <v>73.81363636363636</v>
+        <v>92.56</v>
       </c>
       <c r="F3" t="n">
-        <v>421</v>
+        <v>117</v>
       </c>
       <c r="G3" t="n">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
-        <v>15.96503496503496</v>
+        <v>21.92</v>
       </c>
       <c r="I3" t="n">
-        <v>65.06293706293707</v>
+        <v>83.84</v>
       </c>
       <c r="J3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
+        <v>35</v>
+      </c>
+      <c r="L3" t="n">
+        <v>30</v>
+      </c>
+      <c r="M3" t="n">
+        <v>70</v>
+      </c>
+      <c r="N3" t="n">
+        <v>133</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6.813524590163935</v>
+      </c>
+      <c r="P3" t="n">
+        <v>131</v>
+      </c>
+      <c r="Q3" t="n">
         <v>123</v>
       </c>
-      <c r="L3" t="n">
-        <v>13.98601398601399</v>
-      </c>
-      <c r="M3" t="n">
-        <v>86.01398601398601</v>
-      </c>
-      <c r="N3" t="n">
-        <v>387</v>
-      </c>
-      <c r="O3" t="n">
-        <v>6.79304897314376</v>
-      </c>
-      <c r="P3" t="n">
-        <v>455</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>268</v>
-      </c>
       <c r="R3" t="n">
-        <v>723</v>
+        <v>254</v>
       </c>
       <c r="S3" t="n">
-        <v>37.06777316735823</v>
+        <v>48.4251968503937</v>
       </c>
       <c r="T3" t="n">
-        <v>62.93222683264177</v>
+        <v>51.5748031496063</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[('Fezziwig', 0.35106196243637), ('Scrooge', 1.2111637704054765), ('Page', 0.29840266807091453), ('Ebenezer', 0.070212392487274), ('Groom', 0.0175530981218185), ('Welch', 0.0175530981218185), ('Dick', 0.1228716868527295)]</t>
+          <t>[('Alice', 1.3319672131147542), ('Mabel', 0.20491803278688525), ('Mouse', 0.5635245901639344), ('William', 0.05122950819672131)]</t>
         </is>
       </c>
     </row>
@@ -674,65 +674,65 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7593</v>
+        <v>1608</v>
       </c>
       <c r="C4" t="n">
-        <v>47319</v>
+        <v>9253</v>
       </c>
       <c r="D4" t="n">
-        <v>19.24832214765101</v>
+        <v>16.79</v>
       </c>
       <c r="E4" t="n">
-        <v>95.4154175588865</v>
+        <v>79.47</v>
       </c>
       <c r="F4" t="n">
-        <v>447</v>
+        <v>115</v>
       </c>
       <c r="G4" t="n">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="H4" t="n">
-        <v>12.37404580152672</v>
+        <v>11.47222222222222</v>
       </c>
       <c r="I4" t="n">
-        <v>47.61068702290076</v>
+        <v>40.31944444444444</v>
       </c>
       <c r="J4" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="K4" t="n">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="L4" t="n">
-        <v>25.95419847328244</v>
+        <v>23.61111111111111</v>
       </c>
       <c r="M4" t="n">
-        <v>74.04580152671755</v>
+        <v>76.38888888888889</v>
       </c>
       <c r="N4" t="n">
-        <v>560</v>
+        <v>89</v>
       </c>
       <c r="O4" t="n">
-        <v>7.375214012906625</v>
+        <v>5.534825870646766</v>
       </c>
       <c r="P4" t="n">
-        <v>598</v>
+        <v>136</v>
       </c>
       <c r="Q4" t="n">
-        <v>346</v>
+        <v>99</v>
       </c>
       <c r="R4" t="n">
-        <v>944</v>
+        <v>235</v>
       </c>
       <c r="S4" t="n">
-        <v>36.65254237288136</v>
+        <v>42.12765957446808</v>
       </c>
       <c r="T4" t="n">
-        <v>63.34745762711864</v>
+        <v>57.87234042553192</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[('Scrooge', 1.1984722770973264), ('Page', 0.2370604504148558)]</t>
+          <t>[('Alice', 1.4303482587064678), ('Mouse', 1.1194029850746268), ('Edwin', 0.12437810945273632), ('Mercia', 0.12437810945273632), ('Atheling', 0.06218905472636816), ('William', 0.1865671641791045), ('Said', 0.12437810945273632)]</t>
         </is>
       </c>
     </row>
@@ -741,65 +741,65 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4912</v>
+        <v>2399</v>
       </c>
       <c r="C5" t="n">
-        <v>29623</v>
+        <v>13877</v>
       </c>
       <c r="D5" t="n">
-        <v>13.50574712643678</v>
+        <v>18.62</v>
       </c>
       <c r="E5" t="n">
-        <v>62.9082774049217</v>
+        <v>90.91</v>
       </c>
       <c r="F5" t="n">
-        <v>435</v>
+        <v>151</v>
       </c>
       <c r="G5" t="n">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="H5" t="n">
-        <v>14.06962025316456</v>
+        <v>16.171875</v>
       </c>
       <c r="I5" t="n">
-        <v>52.63291139240506</v>
+        <v>64.203125</v>
       </c>
       <c r="J5" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="K5" t="n">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="L5" t="n">
-        <v>30.37974683544304</v>
+        <v>34.375</v>
       </c>
       <c r="M5" t="n">
-        <v>69.62025316455696</v>
+        <v>65.625</v>
       </c>
       <c r="N5" t="n">
-        <v>310</v>
+        <v>148</v>
       </c>
       <c r="O5" t="n">
-        <v>6.311074918566775</v>
+        <v>6.169237182159233</v>
       </c>
       <c r="P5" t="n">
-        <v>416</v>
+        <v>198</v>
       </c>
       <c r="Q5" t="n">
-        <v>293</v>
+        <v>163</v>
       </c>
       <c r="R5" t="n">
-        <v>709</v>
+        <v>361</v>
       </c>
       <c r="S5" t="n">
-        <v>41.32581100141044</v>
+        <v>45.15235457063712</v>
       </c>
       <c r="T5" t="n">
-        <v>58.67418899858956</v>
+        <v>54.84764542936288</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[('Scrooge', 0.7125407166123778), ('Page', 0.24429967426710097)]</t>
+          <t>[('Alice', 1.2922050854522718)]</t>
         </is>
       </c>
     </row>
@@ -808,65 +808,534 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2211</v>
+        <v>2125</v>
       </c>
       <c r="C6" t="n">
-        <v>13464</v>
+        <v>12005</v>
       </c>
       <c r="D6" t="n">
-        <v>10.75</v>
+        <v>18.94</v>
       </c>
       <c r="E6" t="n">
-        <v>48.24902723735408</v>
+        <v>87.93000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>248</v>
+        <v>135</v>
       </c>
       <c r="G6" t="n">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="H6" t="n">
-        <v>11.68354430379747</v>
+        <v>11.54</v>
       </c>
       <c r="I6" t="n">
-        <v>44.65822784810127</v>
+        <v>41.61</v>
       </c>
       <c r="J6" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K6" t="n">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="L6" t="n">
-        <v>30.37974683544304</v>
+        <v>29</v>
       </c>
       <c r="M6" t="n">
-        <v>69.62025316455696</v>
+        <v>71</v>
       </c>
       <c r="N6" t="n">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O6" t="n">
-        <v>5.06558118498417</v>
+        <v>5.741176470588235</v>
       </c>
       <c r="P6" t="n">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="Q6" t="n">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="R6" t="n">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="S6" t="n">
-        <v>45.89041095890411</v>
+        <v>35.88039867109634</v>
       </c>
       <c r="T6" t="n">
-        <v>54.10958904109589</v>
+        <v>64.11960132890366</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[('Marley', 0.13568521031207598), ('Scrooge', 1.854364540931705), ('Page', 0.31659882406151063)]</t>
+          <t>[('Alice', 1.6470588235294117), ('William', 0.1411764705882353), ('Said', 0.047058823529411764)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2373</v>
+      </c>
+      <c r="C7" t="n">
+        <v>13837</v>
+      </c>
+      <c r="D7" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="E7" t="n">
+        <v>90.04000000000001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>152</v>
+      </c>
+      <c r="G7" t="n">
+        <v>108</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9.37962962962963</v>
+      </c>
+      <c r="I7" t="n">
+        <v>33.61111111111111</v>
+      </c>
+      <c r="J7" t="n">
+        <v>32</v>
+      </c>
+      <c r="K7" t="n">
+        <v>76</v>
+      </c>
+      <c r="L7" t="n">
+        <v>29.62962962962963</v>
+      </c>
+      <c r="M7" t="n">
+        <v>70.37037037037037</v>
+      </c>
+      <c r="N7" t="n">
+        <v>146</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6.152549515381374</v>
+      </c>
+      <c r="P7" t="n">
+        <v>216</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>140</v>
+      </c>
+      <c r="R7" t="n">
+        <v>356</v>
+      </c>
+      <c r="S7" t="n">
+        <v>39.32584269662922</v>
+      </c>
+      <c r="T7" t="n">
+        <v>60.67415730337078</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>[('Alice', 1.8120522545301307), ('Hare', 0.1685630004214075), ('Hatter', 0.08428150021070376)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2074</v>
+      </c>
+      <c r="C8" t="n">
+        <v>12696</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14.43</v>
+      </c>
+      <c r="E8" t="n">
+        <v>69.54000000000001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>180</v>
+      </c>
+      <c r="G8" t="n">
+        <v>148</v>
+      </c>
+      <c r="H8" t="n">
+        <v>8.635135135135135</v>
+      </c>
+      <c r="I8" t="n">
+        <v>31.47972972972973</v>
+      </c>
+      <c r="J8" t="n">
+        <v>54</v>
+      </c>
+      <c r="K8" t="n">
+        <v>94</v>
+      </c>
+      <c r="L8" t="n">
+        <v>36.48648648648648</v>
+      </c>
+      <c r="M8" t="n">
+        <v>63.51351351351352</v>
+      </c>
+      <c r="N8" t="n">
+        <v>111</v>
+      </c>
+      <c r="O8" t="n">
+        <v>5.351976856316297</v>
+      </c>
+      <c r="P8" t="n">
+        <v>199</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>118</v>
+      </c>
+      <c r="R8" t="n">
+        <v>317</v>
+      </c>
+      <c r="S8" t="n">
+        <v>37.22397476340694</v>
+      </c>
+      <c r="T8" t="n">
+        <v>62.77602523659306</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>[('Alice', 2.459016393442623), ('Dormouse', 1.3018322082931533), ('Hare', 1.012536162005786), ('Hatter', 1.5911282545805208)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2255</v>
+      </c>
+      <c r="C9" t="n">
+        <v>13661</v>
+      </c>
+      <c r="D9" t="n">
+        <v>18.78</v>
+      </c>
+      <c r="E9" t="n">
+        <v>93.88</v>
+      </c>
+      <c r="F9" t="n">
+        <v>144</v>
+      </c>
+      <c r="G9" t="n">
+        <v>90</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8.277777777777779</v>
+      </c>
+      <c r="I9" t="n">
+        <v>30.87777777777778</v>
+      </c>
+      <c r="J9" t="n">
+        <v>25</v>
+      </c>
+      <c r="K9" t="n">
+        <v>65</v>
+      </c>
+      <c r="L9" t="n">
+        <v>27.77777777777778</v>
+      </c>
+      <c r="M9" t="n">
+        <v>72.22222222222223</v>
+      </c>
+      <c r="N9" t="n">
+        <v>104</v>
+      </c>
+      <c r="O9" t="n">
+        <v>4.611973392461198</v>
+      </c>
+      <c r="P9" t="n">
+        <v>228</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>108</v>
+      </c>
+      <c r="R9" t="n">
+        <v>336</v>
+      </c>
+      <c r="S9" t="n">
+        <v>32.14285714285715</v>
+      </c>
+      <c r="T9" t="n">
+        <v>67.85714285714286</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>[('Alice', 1.729490022172949), ('Kings', 0.04434589800443459)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2047</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12624</v>
+      </c>
+      <c r="D10" t="n">
+        <v>15.52</v>
+      </c>
+      <c r="E10" t="n">
+        <v>76.45</v>
+      </c>
+      <c r="F10" t="n">
+        <v>163</v>
+      </c>
+      <c r="G10" t="n">
+        <v>135</v>
+      </c>
+      <c r="H10" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="I10" t="n">
+        <v>35.62222222222222</v>
+      </c>
+      <c r="J10" t="n">
+        <v>46</v>
+      </c>
+      <c r="K10" t="n">
+        <v>89</v>
+      </c>
+      <c r="L10" t="n">
+        <v>34.07407407407408</v>
+      </c>
+      <c r="M10" t="n">
+        <v>65.92592592592592</v>
+      </c>
+      <c r="N10" t="n">
+        <v>118</v>
+      </c>
+      <c r="O10" t="n">
+        <v>5.764533463605276</v>
+      </c>
+      <c r="P10" t="n">
+        <v>199</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>110</v>
+      </c>
+      <c r="R10" t="n">
+        <v>309</v>
+      </c>
+      <c r="S10" t="n">
+        <v>35.59870550161812</v>
+      </c>
+      <c r="T10" t="n">
+        <v>64.40129449838187</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>[('Alice', 2.5403028822667317)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1847</v>
+      </c>
+      <c r="C11" t="n">
+        <v>11405</v>
+      </c>
+      <c r="D11" t="n">
+        <v>14.67</v>
+      </c>
+      <c r="E11" t="n">
+        <v>71.65000000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>157</v>
+      </c>
+      <c r="G11" t="n">
+        <v>121</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10.27272727272727</v>
+      </c>
+      <c r="I11" t="n">
+        <v>39.47107438016529</v>
+      </c>
+      <c r="J11" t="n">
+        <v>31</v>
+      </c>
+      <c r="K11" t="n">
+        <v>90</v>
+      </c>
+      <c r="L11" t="n">
+        <v>25.6198347107438</v>
+      </c>
+      <c r="M11" t="n">
+        <v>74.3801652892562</v>
+      </c>
+      <c r="N11" t="n">
+        <v>86</v>
+      </c>
+      <c r="O11" t="n">
+        <v>4.656199242014077</v>
+      </c>
+      <c r="P11" t="n">
+        <v>146</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>96</v>
+      </c>
+      <c r="R11" t="n">
+        <v>242</v>
+      </c>
+      <c r="S11" t="n">
+        <v>39.66942148760331</v>
+      </c>
+      <c r="T11" t="n">
+        <v>60.33057851239669</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>[('Alice', 1.6242555495397943)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1704</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10380</v>
+      </c>
+      <c r="D12" t="n">
+        <v>16.59</v>
+      </c>
+      <c r="E12" t="n">
+        <v>81.39</v>
+      </c>
+      <c r="F12" t="n">
+        <v>126</v>
+      </c>
+      <c r="G12" t="n">
+        <v>101</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6.782178217821782</v>
+      </c>
+      <c r="I12" t="n">
+        <v>26.01980198019802</v>
+      </c>
+      <c r="J12" t="n">
+        <v>35</v>
+      </c>
+      <c r="K12" t="n">
+        <v>66</v>
+      </c>
+      <c r="L12" t="n">
+        <v>34.65346534653465</v>
+      </c>
+      <c r="M12" t="n">
+        <v>65.34653465346534</v>
+      </c>
+      <c r="N12" t="n">
+        <v>71</v>
+      </c>
+      <c r="O12" t="n">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="P12" t="n">
+        <v>162</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>75</v>
+      </c>
+      <c r="R12" t="n">
+        <v>237</v>
+      </c>
+      <c r="S12" t="n">
+        <v>31.64556962025317</v>
+      </c>
+      <c r="T12" t="n">
+        <v>68.35443037974683</v>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>[('Alice', 0.9389671361502347), ('Dormouse', 0.7629107981220657), ('Hare', 0.2934272300469484), ('Hatter', 1.1737089201877935)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1953</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11742</v>
+      </c>
+      <c r="D13" t="n">
+        <v>20.37</v>
+      </c>
+      <c r="E13" t="n">
+        <v>100.23</v>
+      </c>
+      <c r="F13" t="n">
+        <v>116</v>
+      </c>
+      <c r="G13" t="n">
+        <v>86</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10.09302325581395</v>
+      </c>
+      <c r="I13" t="n">
+        <v>36.84883720930232</v>
+      </c>
+      <c r="J13" t="n">
+        <v>20</v>
+      </c>
+      <c r="K13" t="n">
+        <v>66</v>
+      </c>
+      <c r="L13" t="n">
+        <v>23.25581395348837</v>
+      </c>
+      <c r="M13" t="n">
+        <v>76.74418604651163</v>
+      </c>
+      <c r="N13" t="n">
+        <v>111</v>
+      </c>
+      <c r="O13" t="n">
+        <v>5.683563748079878</v>
+      </c>
+      <c r="P13" t="n">
+        <v>171</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>85</v>
+      </c>
+      <c r="R13" t="n">
+        <v>256</v>
+      </c>
+      <c r="S13" t="n">
+        <v>33.203125</v>
+      </c>
+      <c r="T13" t="n">
+        <v>66.796875</v>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>[('Alice', 1.228878648233487), ('Mouse', 0.051203277009728626), ('Bill', 0.051203277009728626), ('Lizard', 0.2048131080389145), ('Hare', 0.051203277009728626)]</t>
         </is>
       </c>
     </row>
